--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,90 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
@@ -643,85 +653,95 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>85.0</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>-2.19</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>19.20</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>22.19</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>7700</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>12877106.0</t>
         </is>
@@ -790,85 +810,95 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>700.0</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>-1.96</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>22.35</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>56812</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>89994.0</t>
         </is>
@@ -937,85 +967,95 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>105.0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>緯軟</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>51.76</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>35.79</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>13.31</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>26.29</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>7661</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>技術服務100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>緯軟-資訊服務業-上櫃</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>134431.0</t>
         </is>
@@ -1084,85 +1124,95 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>21.65</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>元翎</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>19.90</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>4390</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>元翎-電機機械-上市</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>17509677.0</t>
         </is>
@@ -1231,85 +1281,95 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>36.8</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>-0.27</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>17.52</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11317</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>33296577.0</t>
         </is>
@@ -1378,85 +1438,95 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>253.5</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>-1.36</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>20.56</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>169817</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>-645034914.0</t>
         </is>
@@ -1525,85 +1595,95 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>30.55</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>0.33</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>燿華</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>16.76</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>21.36</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>21672</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>燿華-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>355426099.0</t>
         </is>
@@ -1672,85 +1752,95 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>13.4</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0.37</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>9295</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>85922379.0</t>
         </is>
@@ -1824,80 +1914,90 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>109.0</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>37.38</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>20.3</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>255850</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1647183254.0</t>
         </is>
@@ -1966,85 +2066,95 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>29.0</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>-1.69</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>138.1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>41.41</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>2161</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>1404.0</t>
         </is>
@@ -2113,85 +2223,95 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>92.8</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>0.22</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5.93</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>34.67</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>23.79</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>14.73</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>19.56</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>27357</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>-4971124.0</t>
         </is>
@@ -2260,85 +2380,95 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>-100.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>26.76</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>20.4</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>240505</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>459832811.0</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,27 +598,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-3.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-62</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>12877106.0</t>
+          <t>-58023406.0</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>700.0</t>
+          <t>698.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -790,17 +790,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-38.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>700.0</t>
+          <t>698.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>89994.0</t>
+          <t>-348349.0</t>
         </is>
       </c>
     </row>
@@ -912,27 +912,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>106.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>17.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>106.5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>134431.0</t>
+          <t>307962.0</t>
         </is>
       </c>
     </row>
@@ -1069,27 +1069,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>22.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>22.4</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>17509677.0</t>
+          <t>28975347.0</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1246,32 +1246,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>33296577.0</t>
+          <t>-37121581.0</t>
         </is>
       </c>
     </row>
@@ -1383,52 +1383,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-7.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>253.5</t>
+          <t>236.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>253.5</t>
+          <t>236.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-645034914.0</t>
+          <t>-3588994783.0</t>
         </is>
       </c>
     </row>
@@ -1540,27 +1540,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>355426099.0</t>
+          <t>418758078.0</t>
         </is>
       </c>
     </row>
@@ -1697,17 +1697,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,99 +1727,99 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-79.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-79</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-81.0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-81</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>錸德</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>錸德</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>60.87</t>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>85922379.0</t>
+          <t>-45326435.0</t>
         </is>
       </c>
     </row>
@@ -1854,52 +1854,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>107.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>107.5</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1999,64 +1999,64 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1647183254.0</t>
+          <t>-937767067.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>93.8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-100.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>93.8</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2101,84 +2101,84 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>卜蜂</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>34.67</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>138.1</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>41.41</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>27357</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1404.0</t>
+          <t>27528568.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>26.42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2198,22 +2198,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>--遠期量推探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2273,204 +2273,47 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>240505</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
+          <t>台泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-4971124.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>20.6</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-100.0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>240505</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>459832811.0</t>
+          <t>-292179008.0</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -598,17 +598,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -628,22 +628,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-58.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-58023406.0</t>
+          <t>-99206888.0</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>698.0</t>
+          <t>712.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,74 +775,74 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-42.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-42</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>712.0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>698.0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>譜瑞-KY</t>
@@ -900,7 +900,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-348349.0</t>
+          <t>-262687.0</t>
         </is>
       </c>
     </row>
@@ -912,52 +912,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106.5</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>28.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-51.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>273</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>106.5</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>307962.0</t>
+          <t>668619.0</t>
         </is>
       </c>
     </row>
@@ -1069,27 +1069,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>22.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1139,17 +1139,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>22.6</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>28975347.0</t>
+          <t>32690707.0</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1246,32 +1246,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-46.0</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-37121581.0</t>
+          <t>45672758.0</t>
         </is>
       </c>
     </row>
@@ -1383,27 +1383,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-7.54</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>236.0</t>
+          <t>240.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1418,17 +1418,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>236.0</t>
+          <t>240.5</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-3588994783.0</t>
+          <t>-1721511488.0</t>
         </is>
       </c>
     </row>
@@ -1540,27 +1540,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1570,22 +1570,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>418758078.0</t>
+          <t>132184371.0</t>
         </is>
       </c>
     </row>
@@ -1697,17 +1697,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,22 +1727,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-79.0</t>
+          <t>-78.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>-38</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-78</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-45326435.0</t>
+          <t>-42844008.0</t>
         </is>
       </c>
     </row>
@@ -1854,17 +1854,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>106.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1884,22 +1884,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>106.5</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-937767067.0</t>
+          <t>-739440324.0</t>
         </is>
       </c>
     </row>
@@ -2011,17 +2011,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.8</t>
+          <t>94.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2041,64 +2041,64 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>93.8</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>卜蜂</t>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>27528568.0</t>
+          <t>43442713.0</t>
         </is>
       </c>
     </row>
@@ -2168,87 +2168,87 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>26.42</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-292179008.0</t>
+          <t>-423895843.0</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>收盤價_x</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>交易量比</t>
+          <t>成交金額</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>成交股數</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,107 +486,97 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>highlight</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highlight</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>recommend</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>recommend</t>
+          <t>recommend2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>recommend2</t>
+          <t>量增</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>量增</t>
+          <t>change_quote</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>Type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
     </row>
@@ -598,152 +588,142 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>25916307</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>310.382</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-58.0</t>
+          <t>-59</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-58</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>迎廣</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-1.09</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>迎廣</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>7700</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>-52462524</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>-99206888.0</t>
         </is>
       </c>
     </row>
@@ -755,152 +735,142 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>712.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>619246</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-42</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>712.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>譜瑞-KY</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>譜瑞-KY</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>271.21</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>55.49</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>271.21</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>55.49</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>56812</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>-646900</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>56812</t>
+          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>-262687.0</t>
         </is>
       </c>
     </row>
@@ -912,152 +882,142 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28.59</t>
+          <t>308090</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>2682.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-51.0</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>緯軟</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>緯軟</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>51.76</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>51.76</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>7661</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>921587</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>7661</t>
+          <t>技術服務100.00% (2023年)</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>技術服務100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>緯軟-資訊服務業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>668619.0</t>
         </is>
       </c>
     </row>
@@ -1069,152 +1029,142 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>16627425</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>724.29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>元翎</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22.6</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>元翎</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>19.90</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>39973486</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
           <t>元翎-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>32690707.0</t>
         </is>
       </c>
     </row>
@@ -1226,152 +1176,142 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>52893952</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>1412.058</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>69998070</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
           <t>毅嘉-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>45672758.0</t>
         </is>
       </c>
     </row>
@@ -1383,152 +1323,142 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>240.5</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>989186075</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>3971.735</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>240.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>技嘉</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>75.85</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>105.16</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>169817</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>70980666</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>169817</t>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>-1721511488.0</t>
         </is>
       </c>
     </row>
@@ -1540,152 +1470,142 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.45</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>87530240</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>2852.422</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>燿華</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>30.45</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-1.93</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>燿華</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>69334160</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
           <t>燿華-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>132184371.0</t>
         </is>
       </c>
     </row>
@@ -1697,152 +1617,142 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>37342334</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>2803.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-78.0</t>
+          <t>-78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-78</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>錸德</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-1.52</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>錸德</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9295</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>-45326743</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>9295</t>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
           <t>錸德-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>-42844008.0</t>
         </is>
       </c>
     </row>
@@ -1854,32 +1764,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106.5</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>660815044</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>6098.712</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1889,117 +1799,107 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>False</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>106.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>20.3</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>20.3</t>
+          <t>255850</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>-879006600</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>255850</t>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>-739440324.0</t>
         </is>
       </c>
     </row>
@@ -2011,152 +1911,142 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.3</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>27820724</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>293.985</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>94.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>卜蜂</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>34.67</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>27357</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>106486193</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
           <t>卜蜂-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>43442713.0</t>
         </is>
       </c>
     </row>
@@ -2168,152 +2058,142 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>311850092</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>9988.841</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>False</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>台泥</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>水泥工業</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>26.76</t>
+          <t>240505</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>-1076266851</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>240505</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
           <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>-423895843.0</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,12 +588,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -608,27 +608,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25916307</t>
+          <t>15789246.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>310.382</t>
+          <t>186.775</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-59</t>
+          <t>-59.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-69</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-52462524</t>
+          <t>13241631.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -755,27 +755,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>619246</t>
+          <t>1406934.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>1926.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>264</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-646900</t>
+          <t>1100261.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -882,47 +882,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>308090</t>
+          <t>112518.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2682.0</t>
+          <t>980.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -952,14 +952,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>緯軟</t>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>921587</t>
+          <t>581745.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,77 +1029,77 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12766061.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>550.404</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>2025-02-05</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16627425</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>724.29</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>39973486</t>
+          <t>37403096.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1176,47 +1176,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>52893952</t>
+          <t>51626136.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1412.058</t>
+          <t>1357.633</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-41.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>69998070</t>
+          <t>160267695.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1343,27 +1343,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>989186075</t>
+          <t>1055830072.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3971.735</t>
+          <t>4216.447</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>70980666</t>
+          <t>1383126872.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1470,47 +1470,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>87530240</t>
+          <t>269386985.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2852.422</t>
+          <t>8591.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>69334160</t>
+          <t>183043728.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37342334</t>
+          <t>50429499.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2803.62</t>
+          <t>3718.235</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-78</t>
+          <t>-74.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-45326743</t>
+          <t>61336517.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1764,17 +1764,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1784,27 +1784,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>660815044</t>
+          <t>427615828.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6098.712</t>
+          <t>3934.108</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-879006600</t>
+          <t>-292061202.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1906,17 +1906,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1926,32 +1926,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>27820724</t>
+          <t>357.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>293.985</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-62</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1966,14 +1966,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>False</t>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1991,207 +1991,354 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>宏佳騰</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>138.1</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>41.41</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>106486193</t>
+          <t>1456.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
+          <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>33673918.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>353.467</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>卜蜂</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>27357</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>89089891.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>311850092</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>9988.841</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>269800870.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8634.053</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>-1.27</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>26.76</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>20.4</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>240505</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>-1076266851</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>-371749971.0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,130 +451,145 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rt_price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>成交股數</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rt_量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>highlight</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>量增</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成交股數</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量o</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>highlight</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>recommend</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>recommend2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>量增</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -588,140 +603,155 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>86.3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>15789246.0</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>186.775</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>311.525</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-59.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>26832927</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>19.20</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>22.19</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>7700</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>13241631.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>68538480</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
@@ -735,140 +765,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>726.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1406934.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1926.0</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>496.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>-32</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-3.38</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>357871</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>22.35</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>56812</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>1100261.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1145559</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
@@ -882,140 +927,155 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>112518.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>980.0</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>3634.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-47.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>-42</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>430664</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>緯軟</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51.76</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35.79</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>13.31</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26.29</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>7661</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>581745.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>626236</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>技術服務100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>緯軟-資訊服務業-上櫃</t>
         </is>
@@ -1029,7 +1089,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1039,130 +1099,145 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>23.2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12766061.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>550.404</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>471.434</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>--遠期量推近期量推量大</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>10912344</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>元翎</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>19.90</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>72.79</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>4390</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>37403096.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>40305830</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>元翎-電機機械-上市</t>
         </is>
@@ -1176,140 +1251,155 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>51626136.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1357.633</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>1112.216</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-41.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>42613848</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>17.52</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>11317</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>160267695.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>61906240</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
@@ -1323,140 +1413,155 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>254.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1055830072.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4216.447</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>2416.064</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-57</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>--遠期量推</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>608778467</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>20.56</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>169817</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>1383126872.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>542134470</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
@@ -1470,140 +1575,155 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>269386985.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8591.15</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>7445.315</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>235452794</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>燿華</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>16.76</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>21.36</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>21672</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>183043728.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>592370019</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>燿華-電子零組件業-上市</t>
         </is>
@@ -1617,140 +1737,155 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>13.6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>均線:橫盤震盪</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>50429499.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3718.235</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>2314.679</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-74.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>31453414</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>9295</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>61336517.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>119225247</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
@@ -1764,140 +1899,155 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>107.5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4356.847</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-41</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>468217400</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>427615828.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3934.108</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-46</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>37.38</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>20.3</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>255850</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-292061202.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>-235018184</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
@@ -1906,439 +2056,322 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>357.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>278.269</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-62</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>-27</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>26458261</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>宏佳騰</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>卜蜂</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>138.1</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>41.41</t>
+          <t>34.67</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1456.0</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>27357</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>35036381</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>33673918.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>353.467</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>6147.195</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>192055001</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>卜蜂</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>34.67</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>23.79</t>
-        </is>
-      </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>89089891.0</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>269800870.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>8634.053</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
           <t>240505</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>-371749971.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-234104223</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.3</t>
+          <t>87.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>311.525</t>
+          <t>235.056</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-60.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>26832927</t>
+          <t>20342286.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>68538480</t>
+          <t>62964459.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>726.0</t>
+          <t>721.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -785,17 +785,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>496.0</t>
+          <t>478.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-34.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>357871</t>
+          <t>343278.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1145559</t>
+          <t>1421527.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>115.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3634.0</t>
+          <t>946.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>430664</t>
+          <t>109202.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>626236</t>
+          <t>208944.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>23.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>471.434</t>
+          <t>1258.522</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>203</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>10912344</t>
+          <t>29792506.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>40305830</t>
+          <t>53470911.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1112.216</t>
+          <t>780.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>42613848</t>
+          <t>29699469.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>61906240</t>
+          <t>38711757.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>254.0</t>
+          <t>254.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2416.064</t>
+          <t>2839.278</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>608778467</t>
+          <t>717100919.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>542134470</t>
+          <t>270049314.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7445.315</t>
+          <t>6976.288</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>235452794</t>
+          <t>215960482.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>592370019</t>
+          <t>288879297.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2314.679</t>
+          <t>2387.195</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-61.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>31453414</t>
+          <t>32399999.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>119225247</t>
+          <t>114282912.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>108.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1919,17 +1919,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4356.847</t>
+          <t>7043.856</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,17 +1939,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1964,14 +1964,14 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>False</t>
@@ -1979,12 +1979,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>468217400</t>
+          <t>762332286.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-235018184</t>
+          <t>-133500942.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>278.269</t>
+          <t>250.592</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2101,17 +2101,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-29.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>26458261</t>
+          <t>23790072.0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>35036381</t>
+          <t>-16574415.0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>31.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2243,17 +2243,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6147.195</t>
+          <t>7647.126</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>192055001</t>
+          <t>237765609.0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-234104223</t>
+          <t>-160019740.0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,22 +598,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6789</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.1</t>
+          <t>319.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>235.056</t>
+          <t>2264.314</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-60.0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-58</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20342286.0</t>
+          <t>720821508</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>迎廣</t>
+          <t>采鈺</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -713,69 +713,69 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>55.20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>103853</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>62964459.0</t>
+          <t>503936441</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
+          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>迎廣-電腦及週邊設備業-上市</t>
+          <t>采鈺-半導體業-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>721.0</t>
+          <t>86.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -785,17 +785,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>478.0</t>
+          <t>386.169</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-34.0</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>343278.0</t>
+          <t>33666491</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -860,84 +860,84 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>譜瑞-KY</t>
+          <t>迎廣</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>271.21</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>55.49</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>56812</t>
+          <t>7700</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1421527.0</t>
+          <t>13508722</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
+          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>譜瑞-KY-半導體業-上櫃</t>
+          <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>115.5</t>
+          <t>694.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -947,17 +947,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>946.0</t>
+          <t>2040.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,52 +967,52 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>228</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>109202.0</t>
+          <t>1436731</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>緯軟</t>
+          <t>譜瑞-KY</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1037,69 +1037,69 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>51.76</t>
+          <t>271.21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>55.49</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>7661</t>
+          <t>56812</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>208944.0</t>
+          <t>-1422138</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>技術服務100.00% (2023年)</t>
+          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>緯軟-資訊服務業-上櫃</t>
+          <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4953</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.7</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1258.522</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>29792506.0</t>
+          <t>96243</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>-2.56</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1184,84 +1184,84 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>元翎</t>
+          <t>緯軟</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>51.76</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>7661</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>53470911.0</t>
+          <t>225219</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
+          <t>技術服務100.00% (2023年)</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>元翎-電機機械-上市</t>
+          <t>緯軟-資訊服務業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>24.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>780.48</t>
+          <t>1207.027</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,52 +1291,52 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>155</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>29699469.0</t>
+          <t>28850947</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>元翎</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1361,69 +1361,69 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>38711757.0</t>
+          <t>69555797</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>元翎-電機機械-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>254.5</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2839.278</t>
+          <t>3360.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,52 +1453,52 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>204.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>392</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>717100919.0</t>
+          <t>92885</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1508,84 +1508,84 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>李洲</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>96.61</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>169817</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>270049314.0</t>
+          <t>246875</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>技嘉-電腦及週邊設備業-上市</t>
+          <t>李洲-光電業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.65</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6976.288</t>
+          <t>816.503</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,52 +1615,52 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>215960482.0</t>
+          <t>31117480</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>燿華</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1710,44 +1710,44 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>288879297.0</t>
+          <t>-44031859</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>燿華-電子零組件業-上市</t>
+          <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>257.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1757,17 +1757,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2387.195</t>
+          <t>3601.024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-61.0</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>32399999.0</t>
+          <t>931905742</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1832,12 +1832,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>錸德</t>
+          <t>技嘉</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1847,69 +1847,69 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>75.85</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>105.16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>9295</t>
+          <t>169817</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>114282912.0</t>
+          <t>2257785128</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>錸德-光電業-上市</t>
+          <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>108.5</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7043.856</t>
+          <t>6800.576</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,32 +1939,32 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>762332286.0</t>
+          <t>206189505</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1994,12 +1994,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>燿華</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2009,69 +2009,69 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>20.3</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>255850</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-133500942.0</t>
+          <t>-186697193</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>燿華-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.7</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>250.592</t>
+          <t>3425.408</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2101,52 +2101,52 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>23790072.0</t>
+          <t>46497347</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>錸德</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2171,207 +2171,531 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>9295</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-16574415.0</t>
+          <t>17356066</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
+          <t>錸德-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2301</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3412.332</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-54</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>369978361</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>光寶科</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>255850</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-75863475</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>光寶科-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>299.685</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-48</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>28384960</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>卜蜂</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>27357</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-78633293</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>均線:下降趨勢</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>7647.126</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8717.703</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>--探底</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>237765609.0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>274353545</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>26.76</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>20.4</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>240505</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-160019740.0</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>-155467065</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>319.0</t>
+          <t>314.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2264.314</t>
+          <t>1851.085</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -683,39 +683,39 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>720821508</t>
+          <t>591913601.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>采鈺</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>采鈺</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>55.20</t>
@@ -743,7 +743,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>503936441</t>
+          <t>-741828870.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>386.169</t>
+          <t>528.806</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>33666491</t>
+          <t>46251129.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>13508722</t>
+          <t>-59575334.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2040.0</t>
+          <t>925.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>40</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1436731</t>
+          <t>643608.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-1422138</t>
+          <t>-2423617.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>115.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>629.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>96243</t>
+          <t>72550.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-2.56</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>225219</t>
+          <t>-132895.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1246,22 +1246,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>26.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1207.027</t>
+          <t>1310.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>203.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>68</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1311,32 +1311,32 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>28850947</t>
+          <t>35194.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-6.09</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>元翎</t>
+          <t>李洲</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1366,64 +1366,64 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>96.61</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>69555797</t>
+          <t>157372.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>元翎-電機機械-上市</t>
+          <t>李洲-光電業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>37.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3360.0</t>
+          <t>1406.988</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1473,32 +1473,32 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>92885</t>
+          <t>53852218.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1508,84 +1508,84 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>李洲</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>246875</t>
+          <t>-55270229.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>李洲-光電業-上櫃</t>
+          <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>257.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>816.503</t>
+          <t>4660.247</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,27 +1615,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>31117480</t>
+          <t>1214859457.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>技嘉</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1685,69 +1685,69 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>75.85</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>105.16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>169817</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-44031859</t>
+          <t>2863866118.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>257.0</t>
+          <t>29.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3601.024</t>
+          <t>6687.395</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1817,27 +1817,27 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>931905742</t>
+          <t>200749994.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>燿華</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1847,69 +1847,69 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>169817</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2257785128</t>
+          <t>-622899981.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>技嘉-電腦及週邊設備業-上市</t>
+          <t>燿華-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6800.576</t>
+          <t>4418.694</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,52 +1939,52 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>206189505</t>
+          <t>59779391.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1994,12 +1994,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>燿華</t>
+          <t>錸德</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2014,64 +2014,64 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>9295</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-186697193</t>
+          <t>45682043.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>燿華-電子零組件業-上市</t>
+          <t>錸德-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2081,17 +2081,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3425.408</t>
+          <t>4047.702</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2101,17 +2101,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2121,19 +2121,19 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>False</t>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>46497347</t>
+          <t>437354061.0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>錸德</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2171,69 +2171,69 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.3</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>9295</t>
+          <t>255850</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>17356066</t>
+          <t>-45000136.0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>錸德-光電業-上市</t>
+          <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3412.332</t>
+          <t>360.267</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2263,37 +2263,37 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>369978361</t>
+          <t>34261226.0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>卜蜂</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2333,69 +2333,69 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>34.67</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>20.3</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>255850</t>
+          <t>27357</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-75863475</t>
+          <t>-17913806.0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.3</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2405,17 +2405,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>299.685</t>
+          <t>10439.312</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2425,52 +2425,52 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>28384960</t>
+          <t>331964598.0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2495,207 +2495,45 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>240505</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-78633293</t>
+          <t>368552534.0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
-        <is>
-          <t>卜蜂-食品工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>31.5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>8717.703</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>274353545</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>240505</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>-155467065</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>314.0</t>
+          <t>315.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,12 +628,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1851.085</t>
+          <t>1836.731</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>591913601.0</t>
+          <t>585830829</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.52</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>103853</t>
+          <t>100048</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-741828870.0</t>
+          <t>-726904280</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,99 +765,99 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>225.613</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>19691463</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>86.8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>528.806</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-18.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-42.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>46251129.0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-1.36</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>迎廣</t>
@@ -890,22 +890,22 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>72.17</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>7899</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-59575334.0</t>
+          <t>-60226157</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>925.0</t>
+          <t>855.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>643608.0</t>
+          <t>595827</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1052,22 +1052,22 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>22.16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>56812</t>
+          <t>56325</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-2423617.0</t>
+          <t>-2676166</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>115.5</t>
+          <t>116.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>629.0</t>
+          <t>1290.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>72550.0</t>
+          <t>151707</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>7661</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-132895.0</t>
+          <t>128014</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1246,22 +1246,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1310.0</t>
+          <t>768.923</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>203.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>35194.0</t>
+          <t>18031383</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-6.09</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>李洲</t>
+          <t>元翎</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1366,64 +1366,64 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>76.26</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>157372.0</t>
+          <t>-9042976</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>李洲-光電業-上櫃</t>
+          <t>元翎-電機機械-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37.95</t>
+          <t>26.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1406.988</t>
+          <t>1016.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>196.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>53852218.0</t>
+          <t>27144</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1508,84 +1508,84 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>李洲</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>98.54</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-55270229.0</t>
+          <t>30547</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>李洲-光電業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>257.5</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4660.247</t>
+          <t>819.244</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1615,52 +1615,52 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1214859457.0</t>
+          <t>31415740</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1685,69 +1685,69 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>18.19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>169817</t>
+          <t>11748</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2863866118.0</t>
+          <t>-53553958</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>技嘉-電腦及週邊設備業-上市</t>
+          <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>264.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1757,17 +1757,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6687.395</t>
+          <t>5646.329</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>200749994.0</t>
+          <t>1488057913</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1832,12 +1832,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>燿華</t>
+          <t>技嘉</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1847,69 +1847,69 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>75.85</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>105.16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>21.41</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>72.17</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>176850</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-622899981.0</t>
+          <t>3634823112</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>燿華-電子零組件業-上市</t>
+          <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>30.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4418.694</t>
+          <t>4424.429</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1939,27 +1939,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1979,12 +1979,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>59779391.0</t>
+          <t>133631656</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1994,12 +1994,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>錸德</t>
+          <t>燿華</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2014,154 +2014,154 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>9295</t>
+          <t>21531</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>45682043.0</t>
+          <t>-273307843</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>錸德-光電業-上市</t>
+          <t>燿華-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4895.681</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>67032265</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4047.702</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-45</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>437354061.0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>錸德</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2171,69 +2171,69 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>20.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>59.43</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>255850</t>
+          <t>9538</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-45000136.0</t>
+          <t>80314309</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>錸德-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.7</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>360.267</t>
+          <t>19461.318</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2263,52 +2263,52 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>136</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>34261226.0</t>
+          <t>2153063115</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2333,207 +2333,369 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>72.17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>260545</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-17913806.0</t>
+          <t>1345730693</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
+          <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>95.1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>293.416</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>27885020</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>卜蜂</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>28035</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>33761286</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>10439.312</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>38137.717</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>--探底有撐</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>331964598.0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1254904689</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>240505</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>368552534.0</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>28.11</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>252587</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>1861222832</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,72 +466,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>價能O</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>highlight</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>recommend</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>recommend2</t>
+          <t>成交金額</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>量增</t>
+          <t>change_quote</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>成交金額</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>量比</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>315.5</t>
+          <t>327.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,72 +628,72 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1836.731</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5987.657</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>1993478225.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-1.8</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>585830829</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-3.96</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>39.85</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>82.38</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>48.52</t>
+          <t>52.88</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>100048</t>
+          <t>103853</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-726904280</t>
+          <t>59981278.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.2</t>
+          <t>94.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -785,77 +785,77 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>225.613</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>1627.199</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>151485200.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>19691463</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -890,22 +890,22 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>24.57</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>72.17</t>
+          <t>73.62</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>7899</t>
+          <t>8524</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-60226157</t>
+          <t>189389024.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,97 +927,97 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>711.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-5.68</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-7.74</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>694.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>855.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>252377.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>595827</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1052,22 +1052,22 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.8</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>56325</t>
+          <t>57705</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-2676166</t>
+          <t>430132.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>116.5</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1114,72 +1114,72 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1290.0</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>948.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>113002.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>151707</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>15.21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>28.72</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>8756</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>128014</t>
+          <t>-57743.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.45</t>
+          <t>22.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,77 +1271,77 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>768.923</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>1033.926</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>23629465.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>18031383</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1381,17 +1381,17 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>76.26</t>
+          <t>78.25</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>5319</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-9042976</t>
+          <t>-41344587.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.15</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1438,72 +1438,72 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1016.0</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>196.0</t>
+          <t>422.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>2024-12-24</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>10905.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>27144</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1538,22 +1538,22 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>98.54</t>
+          <t>103.78</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>2185</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>30547</t>
+          <t>-2005.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,77 +1595,77 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>819.244</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>4050.315</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>163549381.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>31415740</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1700,22 +1700,22 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>18.19</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>11748</t>
+          <t>12409</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-53553958</t>
+          <t>611351318.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>264.0</t>
+          <t>265.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1762,72 +1762,72 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5646.329</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>4988.232</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>1331028146.0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1488057913</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1862,22 +1862,22 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>21.53</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>72.17</t>
+          <t>73.62</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>176850</t>
+          <t>177855</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3634823112</t>
+          <t>396853710.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.35</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,72 +1924,72 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4424.429</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>5308.377</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-25.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>163762920.0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>133631656</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>21.43</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>21531</t>
+          <t>21743</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-273307843</t>
+          <t>300480012.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2086,72 +2086,72 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4895.681</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2892.622</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>39936493.0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>67032265</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2191,17 +2191,17 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>61.05</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>9538</t>
+          <t>9573</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>80314309</t>
+          <t>65385446.0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2248,72 +2248,72 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19461.318</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>12294.757</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>2025-01-09</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>1375791588.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2153063115</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>72.17</t>
+          <t>73.62</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1345730693</t>
+          <t>-59218333.0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2380,22 +2380,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.1</t>
+          <t>30.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2405,297 +2405,459 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>293.416</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>535.0</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>27885020</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>宏佳騰</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>145.24</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>45.06</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>28035</t>
+          <t>2273</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>33761286</t>
+          <t>-1167.0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
+          <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>97.4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>479.905</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>46782701.0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>卜蜂</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>28713</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>94175726.0</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>33.45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>38137.717</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>1254904689</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15933.176</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>529250664.0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-1.49</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>30.63</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>28.11</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>20.68</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>252587</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>1861222832</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>249567</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-316487790.0</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -603,17 +603,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>327.5</t>
+          <t>312.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,22 +628,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>-6.57</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5987.657</t>
+          <t>5933.787</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,47 +653,47 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-29.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1878088524.0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-5.31</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1993478225.0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>-6.57</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>39.85</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>56.93</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>52.88</t>
+          <t>52.31</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>103853</t>
+          <t>98938</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>59981278.0</t>
+          <t>-2292620676.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -765,97 +765,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-2.36</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>850.871</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1627.199</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>88.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-18.0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>80025687.0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>151485200.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -890,22 +890,22 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>24.57</t>
+          <t>24.36</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>8524</t>
+          <t>8451</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>189389024.0</t>
+          <t>35713512.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -927,97 +927,97 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>710.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-5.12</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-7.21</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>247700.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>-0.28</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>711.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-5.68</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-7.74</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-0.98</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>353.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>252377.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-0.56</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1052,22 +1052,22 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>94.8</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>57705</t>
+          <t>57624</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>430132.0</t>
+          <t>-161410.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1114,22 +1114,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>948.0</t>
+          <t>570.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1139,12 +1139,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>113002.0</t>
+          <t>68114.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>28.72</t>
+          <t>28.41</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>8756</t>
+          <t>8683</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-57743.0</t>
+          <t>-49748.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.85</t>
+          <t>22.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1276,22 +1276,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1033.926</t>
+          <t>300.731</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>23629465.0</t>
+          <t>6834420.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1381,17 +1381,17 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>78.25</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>5319</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-41344587.0</t>
+          <t>-3200384.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,27 +1433,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>-6.88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>422.0</t>
+          <t>584.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>10905.0</t>
+          <t>15317.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>-5.21</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>-6.88</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1538,22 +1538,22 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>103.78</t>
+          <t>101.84</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-2005.0</t>
+          <t>-10184.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.35</t>
+          <t>41.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1595,27 +1595,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4050.315</t>
+          <t>6197.309</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>163549381.0</t>
+          <t>254746173.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1660,12 +1660,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1700,22 +1700,22 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>19.83</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>12409</t>
+          <t>12809</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>611351318.0</t>
+          <t>242075152.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>265.5</t>
+          <t>267.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1762,22 +1762,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>-2.76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4988.232</t>
+          <t>2378.311</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1787,47 +1787,47 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-17.0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>634661035.0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1331028146.0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1862,22 +1862,22 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>21.53</t>
+          <t>21.7</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>177855</t>
+          <t>179195</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>396853710.0</t>
+          <t>308826518.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.65</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1924,22 +1924,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5308.377</t>
+          <t>5385.073</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1949,47 +1949,47 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-25.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>163978078.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.79</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>163762920.0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>21.15</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>21743</t>
+          <t>21460</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>300480012.0</t>
+          <t>-125524827.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2086,22 +2086,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2892.622</t>
+          <t>3315.021</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2111,47 +2111,47 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>45544143.0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-1.8</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>39936493.0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2191,17 +2191,17 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>61.05</t>
+          <t>60.84</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>9573</t>
+          <t>9469</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>65385446.0</t>
+          <t>-65514651.0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>111.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2248,22 +2248,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12294.757</t>
+          <t>11629.896</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1375791588.0</t>
+          <t>1290559292.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2348,22 +2348,22 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>20.67</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>260545</t>
+          <t>261718</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-59218333.0</t>
+          <t>525030579.0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2385,97 +2385,97 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-39.0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-28.0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>30.5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>535.0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2510,22 +2510,22 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>145.24</t>
+          <t>145.71</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>45.06</t>
+          <t>47.06</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>2281</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-1167.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2547,17 +2547,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>97.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2572,22 +2572,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>479.905</t>
+          <t>370.063</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2617,12 +2617,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>46782701.0</t>
+          <t>36110999.0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2672,22 +2672,22 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>20.78</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>28713</t>
+          <t>28772</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>94175726.0</t>
+          <t>100584034.0</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>33.05</t>
+          <t>33.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2729,27 +2729,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>15933.176</t>
+          <t>44566.035</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>529250664.0</t>
+          <t>1513929745.0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2794,12 +2794,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>30.63</t>
+          <t>85.68</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2834,22 +2834,22 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>249567</t>
+          <t>256363</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-316487790.0</t>
+          <t>342207069.0</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,85 +511,90 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>量比</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -603,17 +608,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>309.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,22 +633,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-6.57</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5933.787</t>
+          <t>6438.801</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,17 +658,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>-60</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -673,85 +678,90 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1878088524.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.31</t>
+          <t>1996553487</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-6.57</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>39.49</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>42.86</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0.32</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>55.20</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>56.93</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>56.93</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>52.31</t>
+          <t>56.39</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>98938</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-2292620676.0</t>
+          <t>97987</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>-5868120236</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
@@ -765,17 +775,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.3</t>
+          <t>93.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -790,22 +800,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>850.871</t>
+          <t>1097.226</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -815,105 +825,110 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>103847273</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>80025687.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-2.36</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>19.20</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>24.36</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>73.52</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>8451</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>35713512.0</t>
+          <t>8506</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>175306786</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
@@ -927,155 +942,160 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>713.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-4.38</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-6.65</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>2025-02-20</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>710.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-5.12</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-7.21</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-0.70</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>348.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>290253</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>247700.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>-0.28</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.70</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>22.67</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>57624</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-161410.0</t>
+          <t>57867</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>-209824</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
@@ -1084,22 +1104,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1109,27 +1129,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>570.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1139,129 +1159,134 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>3512</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>68114.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-2.06</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-1.68</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>緯軟</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>李洲</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>51.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>15.08</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>28.41</t>
+          <t>21.3</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>8683</t>
+          <t>102.93</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-49748.0</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>技術服務100.00% (2023年)</t>
+          <t>-7924</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>緯軟-資訊服務業-上櫃</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>李洲-光電業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1271,27 +1296,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>300.731</t>
+          <t>20321.964</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1301,129 +1326,134 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>216</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>855386698</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>6834420.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-1.52</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>元翎</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>32.62</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-3200384.0</t>
+          <t>12886</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
+          <t>1273682252</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>元翎-電機機械-上市</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>269.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1433,27 +1463,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-6.88</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>584.0</t>
+          <t>1804.898</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1463,129 +1493,134 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>15317.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-5.21</t>
+          <t>483648777</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-6.88</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>李洲</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>技嘉</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>75.85</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>105.16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>101.84</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-10184.0</t>
+          <t>180200</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+          <t>-212718334</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>李洲-光電業-上櫃</t>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.65</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1600,22 +1635,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6197.309</t>
+          <t>2256.426</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1625,129 +1660,134 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>30857166</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>254746173.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>錸德</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>19.83</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>32.52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>12809</t>
+          <t>62.39</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>242075152.0</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>-36464816</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>錸德-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>267.5</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1762,22 +1802,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-2.76</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2378.311</t>
+          <t>5201.86</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1787,129 +1827,134 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>581613231</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>634661035.0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
+          <t>光寶科</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>73.52</t>
+          <t>20.86</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>179195</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>308826518.0</t>
+          <t>262892</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>496380935</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>技嘉-電腦及週邊設備業-上市</t>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1919,27 +1964,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5385.073</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1949,129 +1994,134 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>163978078.0</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>803</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-1.98</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>燿華</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>宏佳騰</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>32.52</t>
+          <t>145.48</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>21460</t>
+          <t>47.42</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-125524827.0</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
+          <t>-1219</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>燿華-電子零組件業-上市</t>
+          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>635.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2081,27 +2131,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3315.021</t>
+          <t>28043.201</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2111,129 +2161,134 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>163</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>45544143.0</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>18227816251</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-1.83</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>錸德</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>華城</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>60.84</t>
+          <t>47.53</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>9469</t>
+          <t>79.28</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-65514651.0</t>
+          <t>182349</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>31960841630</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>錸德-光電業-上市</t>
+          <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>華城-電機機械-上市</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>111.5</t>
+          <t>99.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2248,22 +2303,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11629.896</t>
+          <t>1151.132</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2273,129 +2328,134 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>114435433</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1290559292.0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>卜蜂</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>34.67</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>73.52</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>261718</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>525030579.0</t>
+          <t>29243</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>197329133</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2405,27 +2465,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>24967.85</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2435,429 +2495,110 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-39.0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>850543393</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>145.71</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>47.06</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>20.97</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>258250</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>1835222474</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1215</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>97.6</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>370.063</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>36110999.0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>卜蜂</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>34.67</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>23.79</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>20.78</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>28772</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>100584034.0</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>卜蜂-食品工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>33.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>44566.035</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1513929745.0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>28.53</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>20.84</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>256363</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>342207069.0</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -608,17 +608,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>309.0</t>
+          <t>300.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,27 +628,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-2.41</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6438.801</t>
+          <t>2788.948</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -658,17 +658,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1996553487</t>
+          <t>839581723.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-2.41</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -738,22 +738,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>56.39</t>
+          <t>54.84</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>52.63</t>
+          <t>52.54</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>97987</t>
+          <t>95291</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-5868120236</t>
+          <t>-4714223734.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -800,22 +800,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1097.226</t>
+          <t>384.549</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>103847273</t>
+          <t>36144323.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>74.05</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>175306786</t>
+          <t>-12322737.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -942,17 +942,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>713.0</t>
+          <t>718.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-4.38</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-6.65</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>407.0</t>
+          <t>509.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>290253</t>
+          <t>365245.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1072,22 +1072,22 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>57867</t>
+          <t>58273</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-209824</t>
+          <t>407798.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1134,22 +1134,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>2307.0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>102.93</t>
+          <t>102.73</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-7924</t>
+          <t>-21136.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>41.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1301,22 +1301,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20321.964</t>
+          <t>3437.914</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>855386698</t>
+          <t>141406136.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1406,22 +1406,22 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>32.62</t>
+          <t>32.51</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>12886</t>
+          <t>12686</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1273682252</t>
+          <t>968726735.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1443,17 +1443,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>269.0</t>
+          <t>265.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1468,22 +1468,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1804.898</t>
+          <t>1930.859</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-25.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>483648777</t>
+          <t>511556563.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1573,22 +1573,22 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>21.53</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>74.05</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>180200</t>
+          <t>177855</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-212718334</t>
+          <t>606753249.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1635,22 +1635,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2256.426</t>
+          <t>1720.321</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1660,17 +1660,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1680,17 +1680,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30857166</t>
+          <t>23344392.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>62.39</t>
+          <t>62.18</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>9399</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-36464816</t>
+          <t>-99745701.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>111.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5201.86</t>
+          <t>5796.94</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1847,17 +1847,17 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>581613231</t>
+          <t>645535459.0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1867,12 +1867,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>74.05</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>262892</t>
+          <t>261718</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>496380935</t>
+          <t>1226637064.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1944,17 +1944,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1969,22 +1969,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>664.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2074,22 +2074,22 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>145.48</t>
+          <t>146.67</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>47.42</t>
+          <t>47.63</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-1219</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2111,17 +2111,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>635.0</t>
+          <t>661.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2136,22 +2136,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>22.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>28043.201</t>
+          <t>15305.55</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>209.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2181,17 +2181,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18227816251</t>
+          <t>10042899647.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>54.58</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2241,22 +2241,22 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>47.53</t>
+          <t>49.48</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>79.28</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>182349</t>
+          <t>189815</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>31960841630</t>
+          <t>38839486172.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>99.2</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2298,27 +2298,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1151.132</t>
+          <t>500.849</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2328,17 +2328,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2348,17 +2348,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>114435433</t>
+          <t>49913379.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2408,22 +2408,22 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>20.78</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>29243</t>
+          <t>29391</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>197329133</t>
+          <t>200459811.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2445,17 +2445,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2470,22 +2470,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>24967.85</t>
+          <t>21561.142</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2495,17 +2495,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>850543393</t>
+          <t>734760944.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>41.45</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2575,22 +2575,22 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>20.97</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>258250</t>
+          <t>256740</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1835222474</t>
+          <t>1629712194.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,135 +466,150 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>over_%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>均價_%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_%</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>價能O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>量比</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -608,17 +623,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300.5</t>
+          <t>297.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -633,135 +648,150 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2788.948</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>1669.744</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-68.0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>-20.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>498154364.0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>839581723.0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>18.56</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>56.93</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>54.84</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>52.54</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>95291</t>
-        </is>
-      </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-4714223734.0</t>
+          <t>54.29</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>94340</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>-3334289574.0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
@@ -775,160 +805,175 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-2.40</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>345.691</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>384.549</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>31937837.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-1.72</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>36144323.0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-2.40</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>19.20</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>24.52</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>74.05</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>8506</t>
-        </is>
-      </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-12322737.0</t>
+          <t>23.92</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>8297</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>35765113.0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
@@ -942,17 +987,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>718.0</t>
+          <t>698.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -967,135 +1012,150 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>509.0</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-5.61</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>779.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>549011.0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>365245.0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-2.44</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>22.92</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>58273</t>
-        </is>
-      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>407798.0</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>56650</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>106487.0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
@@ -1109,160 +1169,175 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>-1.97</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>5969.0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-1.97</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2307.0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>李洲</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>14.61</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>21.3</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>102.73</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-21136.0</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>100.78</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>-11788.0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
         </is>
@@ -1276,17 +1351,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.25</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1296,140 +1371,155 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3437.914</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>2984.429</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>141406136.0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>121416465.0</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-1.1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-1.11</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>19.64</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>32.51</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>12686</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>968726735.0</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>12471</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>592564097.0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
@@ -1443,17 +1533,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>265.5</t>
+          <t>261.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1468,135 +1558,150 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1930.859</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-25.0</t>
+          <t>2476.768</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-29.0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>649305512.0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>511556563.0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>74.05</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>177855</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>606753249.0</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>175176</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>-677213298.0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
@@ -1610,7 +1715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1620,7 +1725,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1630,140 +1735,155 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1720.321</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>4028.243</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>23344392.0</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>54903647.0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-2.96</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>9399</t>
-        </is>
-      </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-99745701.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>62.75</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>9365</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>-109105205.0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
@@ -1777,12 +1897,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1802,135 +1922,150 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5796.94</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>8962.167</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>-10.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1001524392.0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>645535459.0</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.44</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>37.38</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>20.76</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>74.05</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>261718</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1226637064.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>-1065446620.0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
@@ -1944,17 +2079,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1969,135 +2104,150 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>-26.0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-25.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>664.0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>904.0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>146.67</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>47.63</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>2295</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>145.48</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
+          <t>46.52</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>-1043.0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
@@ -2111,17 +2261,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>-3.33</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>661.0</t>
+          <t>639.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2136,135 +2286,150 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22.42</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>15305.55</t>
+          <t>25.81</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>209.0</t>
+          <t>-3.76</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>7715.95</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>10042899647.0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>4990421921.0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-3.33</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>54.58</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-3.76</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>華城</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>25.09</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>18.65</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>49.48</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>78.77</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>189815</t>
-        </is>
-      </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>38839486172.0</t>
+          <t>47.83</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
+          <t>58.71</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>183498</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>23280293977.0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
           <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>華城-電機機械-上市</t>
         </is>
@@ -2278,12 +2443,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2303,135 +2468,150 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>500.849</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>261.863</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>49913379.0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>26030043.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>34.67</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>23.79</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>15.83</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>20.78</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>29391</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>200459811.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>138318769.0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
@@ -2445,160 +2625,175 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>57322.068</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>34.0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>21561.142</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>734760944.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1992310165.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>41.45</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>28.57</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>256740</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1629712194.0</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>263914</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>2108092614.0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,165 +451,180 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Oscillator</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盤後量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>量比</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>over_%</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>價能O</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>量比</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -623,87 +638,87 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>297.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1669.744</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-68.0</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1985.948</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -713,85 +728,100 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>498154364.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>588333396.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>-0.34</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>56.93</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>54.29</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>51.76</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>94340</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-3334289574.0</t>
+          <t>53.83</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>51.47</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>93547</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>-1926069483.0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
@@ -805,175 +835,190 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>91.8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>80.64</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>345.691</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>200.56</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>31937837.0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-1.72</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-2.40</t>
-        </is>
-      </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>18435872.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>19.20</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>23.92</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>72.96</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>8297</t>
-        </is>
-      </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>35765113.0</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>73.1</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>8316</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>-49646288.0</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
@@ -987,175 +1032,190 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>698.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>694.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-4.11</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-5.61</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-2.44</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-4.98</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>-5.49</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>2025-02-20</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>549011.0</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-2.44</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>389513.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>22.29</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>56650</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>106487.0</t>
+          <t>22.16</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>56325</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>-573279.0</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
@@ -1169,175 +1229,190 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>240.0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>79.0</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>5969.0</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-1.97</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2074.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>李洲</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>14.61</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>20.88</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>100.78</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>2064</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>-11788.0</t>
+          <t>20.8</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>101.01</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>-10350.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
         </is>
@@ -1351,175 +1426,190 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.55</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>40.8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2984.429</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1724.112</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>121416465.0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-1.1</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>70255532.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>32.16</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>12471</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>592564097.0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>12547</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>-192567069.0</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
@@ -1533,87 +1623,87 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>261.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1746</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>266.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-0.96</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2476.768</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1745.587</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1623,85 +1713,100 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>649305512.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>461336461.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>21.21</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>72.96</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>175176</t>
-        </is>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-677213298.0</t>
+          <t>21.61</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>73.1</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>178525</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>-699525614.0</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
@@ -1715,175 +1820,190 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-2.96</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>4028.243</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>2759.53</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>54903647.0</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-0.37</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-2.96</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>36994665.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-1.11</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>62.75</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>9365</t>
-        </is>
-      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-109105205.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>9261</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>-115242704.0</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
@@ -1897,175 +2017,190 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>111.5</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10416</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>8962.167</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>10415.889</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>2025-01-09</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1001524392.0</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>1157409126.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>37.38</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>72.96</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>261718</t>
-        </is>
-      </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>-1065446620.0</t>
+          <t>20.86</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
+          <t>73.1</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>262892</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>-489650725.0</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
@@ -2079,175 +2214,190 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-0.82</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-39.0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>-25.0</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>904.0</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.81</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-0.82</t>
-        </is>
-      </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>145.48</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>46.52</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>2277</t>
-        </is>
-      </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>-1043.0</t>
+          <t>145.95</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2284</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
@@ -2261,175 +2411,190 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-3.33</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>639.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>8379</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-12.25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>625.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>10.61</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-3.76</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7715.95</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>214.0</t>
+          <t>27.05</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>-3.84</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>8378.525</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>4990421921.0</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-3.33</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-3.76</t>
-        </is>
-      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>27.51</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>5319337339.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>-3.84</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>華城</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>25.09</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>18.65</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>47.83</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>58.71</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>183498</t>
-        </is>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>23280293977.0</t>
+          <t>46.78</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>179478</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>-266859613.0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>華城-電機機械-上市</t>
         </is>
@@ -2443,7 +2608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2453,165 +2618,180 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>99.7</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>261.863</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>366.667</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>26030043.0</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>36575505.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>34.67</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>23.79</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>15.22</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>20.59</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>29391</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>138318769.0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>-12692169.0</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
@@ -2625,175 +2805,190 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>35395</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>35.25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>57322.068</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>35394.831</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1992310165.0</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>1243039679.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>29.37</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>21.07</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>263914</t>
-        </is>
-      </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2108092614.0</t>
+          <t>29.62</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>266179</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>2500588900.0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,187 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>貝他值</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>_quote</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>淨值倍率</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>量比</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>over_%</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>價能O</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>成交金額</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Typelevel</t>
         </is>
       </c>
     </row>
@@ -638,192 +653,207 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>101</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>295.0</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>289.5</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>-1.59</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1985.948</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>2583.986</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>588333396.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>755400472.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
+          <t>-2.85</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>56.93</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>53.83</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>51.47</t>
-        </is>
-      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>93547</t>
+          <t>52.83</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>-1926069483.0</t>
+          <t>63.61</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>91803</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>-1841888232.0</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>半導體業右上</t>
         </is>
       </c>
     </row>
@@ -835,192 +865,207 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>0.41</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>91.8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2151.124</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-0.54</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>200.56</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>18435872.0</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>204577877.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>19.20</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>23.97</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>73.1</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>8316</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>-49646288.0</t>
+          <t>72.58</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>8542</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>191075912.0</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -1032,192 +1077,207 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>-1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>694.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>682.0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-4.98</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-5.49</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-6.55</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>560.0</t>
+          <t>-5.70</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>999.0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-18.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>389513.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>684519.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>-2.29</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>22.16</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>56325</t>
+          <t>21.78</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>-573279.0</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>55351</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>-1623043.0</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>半導體業右下</t>
         </is>
       </c>
     </row>
@@ -1229,192 +1289,207 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>24.75</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>214.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2074.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>5249.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-2.26</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>李洲</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>14.61</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>20.8</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>101.01</t>
-        </is>
-      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>-10350.0</t>
+          <t>102.44</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>-13292.0</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>光電業平</t>
         </is>
       </c>
     </row>
@@ -1426,192 +1501,207 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1724.112</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>7353.881</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>70255532.0</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>304963692.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>19.43</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>32.16</t>
-        </is>
-      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>12547</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>-192567069.0</t>
+          <t>35.27</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>12655</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>253802759.0</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -1623,192 +1713,207 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>266.5</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>258.5</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1745.587</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.29</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>3315.454</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>461336461.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>864380338.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>-3.29</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>21.61</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>73.1</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>178525</t>
+          <t>20.97</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>-699525614.0</t>
+          <t>72.58</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>173166</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>-1052349389.0</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
     </row>
@@ -1820,192 +1925,207 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>-1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2759.53</t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>2879.012</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>36994665.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>38088316.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>-3.05</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>62.36</t>
-        </is>
-      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>-115242704.0</t>
+          <t>62.16</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>9087</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>-129986628.0</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -2017,192 +2137,207 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>-4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10416</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>192</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>23529</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-18.08</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>10415.889</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>23529.426</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-31.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>2025-01-09</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>1157409126.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2541072412.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
+          <t>-4.04</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>-3.26</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>37.38</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>20.86</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>73.1</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>262892</t>
+          <t>19.93</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>-489650725.0</t>
+          <t>72.58</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>251156</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>-2385187678.0</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
     </row>
@@ -2214,192 +2349,207 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-25</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>30.65</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-39.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-37.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>-25.0</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>264.0</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>145.95</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>146.43</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>46.32</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>2292</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>-497.0</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>電機機械右下</t>
         </is>
       </c>
     </row>
@@ -2411,192 +2561,207 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8379</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-12.25</t>
+          <t>262</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>625.0</t>
+          <t>7636</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-12.16</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>28.12</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>8378.525</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>191.0</t>
+          <t>7635.526</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>5319337339.0</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>4843578076.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
+          <t>-0.47</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>-2.06</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
           <t>華城</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
         <is>
           <t>25.09</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>18.65</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>46.78</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>179478</t>
+          <t>47.16</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-266859613.0</t>
+          <t>47.17</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
+          <t>180913</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>-5466181184.0</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>華城-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -2608,192 +2773,207 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>102.5</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1544.929</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>99.7</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>366.667</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>36575505.0</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>157537529.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>36.24</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>24.85</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>15.22</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>29391</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>-12692169.0</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
+          <t>30216</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>94931981.0</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>食品工業右上</t>
         </is>
       </c>
     </row>
@@ -2805,192 +2985,207 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35395</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>61.52</t>
+          <t>303</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>35.25</t>
+          <t>34165</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59.42</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>35.1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>35394.831</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>34165.236</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>1243039679.0</t>
-        </is>
-      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1195455567.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>29.62</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>266179</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2500588900.0</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
+          <t>265046</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>2039894277.0</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>水泥工業平</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>stock_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -648,22 +648,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>-4.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -673,32 +673,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>110</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2319</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>289.5</t>
+          <t>278.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -708,42 +708,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>-3214.24</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>-4.81</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2583.986</t>
+          <t>2319.404</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>755400472.0</t>
+          <t>649027254.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -823,22 +823,22 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>52.83</t>
+          <t>50.73</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>63.61</t>
+          <t>60.89</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>91803</t>
+          <t>88156</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>-1841888232.0</t>
+          <t>-1992761122.0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -853,29 +853,29 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>6117</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -885,32 +885,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>530</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>94.3</t>
+          <t>92.3</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -925,37 +925,37 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2151.124</t>
+          <t>529.689</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -985,22 +985,22 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>204577877.0</t>
+          <t>48933641.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1035,22 +1035,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>24.1</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>8542</t>
+          <t>8361</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>191075912.0</t>
+          <t>174080108.0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1072,22 +1072,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>4966</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1097,22 +1097,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>682.0</t>
+          <t>662.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1137,37 +1137,37 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.55</t>
+          <t>-9.31</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-5.70</t>
+          <t>-6.42</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>999.0</t>
+          <t>1084.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1192,27 +1192,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>684519.0</t>
+          <t>721342.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1247,22 +1247,22 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>21.14</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>88.22</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>55351</t>
+          <t>53728</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-1623043.0</t>
+          <t>-1795374.0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1284,14 +1284,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>3066</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>1.31</t>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>114</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>23.7</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1349,37 +1349,37 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>214.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>5249.0</t>
+          <t>2717.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>19.92</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>102.44</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-13292.0</t>
+          <t>-10040.0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1496,22 +1496,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2402</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1521,32 +1521,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>41.15</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1556,42 +1556,42 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>7353.881</t>
+          <t>2698.833</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1621,22 +1621,22 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>304963692.0</t>
+          <t>108721460.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1671,22 +1671,22 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>12655</t>
+          <t>12409</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>253802759.0</t>
+          <t>266497764.0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1708,22 +1708,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2376</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3315</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1773,37 +1773,37 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-3.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3315.454</t>
+          <t>2791.547</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1813,42 +1813,42 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>864380338.0</t>
+          <t>721440717.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-3.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-1052349389.0</t>
+          <t>-1124484594.0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1920,22 +1920,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2349</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.87</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1945,32 +1945,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1985,37 +1985,37 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2879.012</t>
+          <t>2617.065</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2040,27 +2040,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>38088316.0</t>
+          <t>33747979.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2100,17 +2100,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>62.16</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>9087</t>
+          <t>8879</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-129986628.0</t>
+          <t>-108830960.0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2132,22 +2132,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2301</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2157,32 +2157,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>82</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23529</t>
+          <t>11615</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-18.08</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>109.5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2207,27 +2207,27 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>23529.426</t>
+          <t>11614.96</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2237,42 +2237,42 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-31.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2541072412.0</t>
+          <t>1264100716.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>-4.04</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2292,37 +2292,37 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>39.46</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>19.93</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>251156</t>
+          <t>257024</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-2385187678.0</t>
+          <t>-119562570.0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2344,22 +2344,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>1599</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2379,39 +2379,39 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>30.75</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>0.01</t>
@@ -2419,27 +2419,27 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2469,24 +2469,24 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>741.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>-0.32</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
       <c r="AD10" t="inlineStr">
         <is>
           <t>宏佳騰</t>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>46.32</t>
+          <t>45.68</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-497.0</t>
+          <t>-334.0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2556,22 +2556,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>1519</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2581,32 +2581,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7636</t>
+          <t>8215</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-12.16</t>
+          <t>-12.53</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>630.0</t>
+          <t>611.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2621,37 +2621,37 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>28.12</t>
+          <t>27.12</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>18.82</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>7635.526</t>
+          <t>8215.058</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2661,17 +2661,17 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>4843578076.0</t>
+          <t>5076715486.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>47.16</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>47.17</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>180913</t>
+          <t>175457</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-5466181184.0</t>
+          <t>-5552474749.0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2768,14 +2768,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>1215</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>0.22</t>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>843</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>27.92</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>103.5</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2843,27 +2843,27 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1544.929</t>
+          <t>842.734</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2893,22 +2893,22 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>157537529.0</t>
+          <t>86458054.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2943,22 +2943,22 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>30216</t>
+          <t>30511</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>94931981.0</t>
+          <t>207420078.0</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -2980,14 +2980,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>0.25</t>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3015,22 +3015,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>271</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>34165</t>
+          <t>29317</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>59.42</t>
+          <t>50.93</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3055,27 +3055,27 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>34165.236</t>
+          <t>29317.359</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -3105,22 +3105,22 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1195455567.0</t>
+          <t>1021846827.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3155,22 +3155,22 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>29.41</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>22.59</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>265046</t>
+          <t>264291</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2039894277.0</t>
+          <t>-974262715.0</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -633,7 +638,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -643,12 +648,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2522.116</t>
+          <t>1329.887</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -658,104 +663,104 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>277.5</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>279.5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>44</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>-0.07</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-6.40</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-7.41</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>-2.51</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>0</t>
@@ -763,65 +768,70 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-2097654589.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>-969589286.0</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>50.64</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>61.24</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>87998</t>
+          <t>62.63</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
+          <t>88632</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
@@ -830,7 +840,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -840,12 +850,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>454.839</t>
+          <t>2211.843</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,170 +865,175 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>93.7</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>97.9</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>197713525.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>207487434.0</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>25.56</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>8488</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>8868</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
@@ -1027,7 +1042,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1037,12 +1052,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>728.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,104 +1067,104 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>642.0</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>661.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>728</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-0.59</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-12.96</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-7.73</t>
+          <t>-14.15</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-9.01</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>-12.0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1157,65 +1172,70 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-1978522.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>-819383.0</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>20.5</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>52105</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
+          <t>53647</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
@@ -1224,7 +1244,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1234,12 +1254,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,104 +1269,104 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>134</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>79.0</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>-32</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1354,65 +1374,70 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-12515.0</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>-10418.0</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>李洲</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>101.09</t>
+          <t>19.66</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>101.62</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
@@ -1421,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1431,12 +1456,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3494.397</t>
+          <t>5505.696</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1446,170 +1471,175 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>5506</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>338790148.0</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>-195266327.0</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>19.81</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>12793</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
+          <t>12763</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
@@ -1618,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1628,12 +1658,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3822.245</t>
+          <t>3369.097</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,170 +1673,175 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>259.0</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>268.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>1.08</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-15.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>2025-03-03</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>-15</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-609718678.0</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
+          <t>1148044901.0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>21.01</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>21.74</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>173501</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
+          <t>179530</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
@@ -1815,7 +1850,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,12 +1860,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3622.091</t>
+          <t>2203.091</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,104 +1875,104 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1945,65 +1980,70 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-117755417.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>-51158389.0</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8844</t>
+          <t>62.41</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
+          <t>8983</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
@@ -2012,7 +2052,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2022,117 +2062,117 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7571.795</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-0.46</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12175.179</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>109.0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>7572</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-29.0</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2142,65 +2182,70 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>-2606820500.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
+          <t>-894175728.0</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>16.65</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>72.41</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
+          <t>72.87</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
           <t>255850</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
@@ -2209,7 +2254,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2219,12 +2264,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2234,170 +2279,175 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>0.18</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-42.0</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-39.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-1265.0</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
+          <t>-1052.0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>145.24</t>
-        </is>
-      </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>145.48</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>電機機械右下</t>
         </is>
@@ -2406,7 +2456,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2416,12 +2466,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4833.565</t>
+          <t>7666.289</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2431,170 +2481,175 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17.24</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>610.0</t>
+          <t>27.34</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>638.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4834</t>
+          <t>107</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>24.31</t>
+          <t>7666</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-3164569603.0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
+          <t>-3190050960.0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
           <t>華城</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>18.65</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>45.66</t>
-        </is>
-      </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>47.75</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>175170</t>
+          <t>46.86</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
+          <t>183211</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>華城-電機機械-上市</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
@@ -2603,7 +2658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2613,12 +2668,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>544.649</t>
+          <t>512.494</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2633,165 +2688,170 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>103.0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>0.49</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>188070255.0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
+          <t>-22181871.0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>5.34</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>24.85</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>15.73</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
           <t>30363</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
@@ -2800,7 +2860,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2810,12 +2870,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32792.625</t>
+          <t>27308.657</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2825,170 +2885,175 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>57.21</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>47.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.15</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>32793</t>
+          <t>314</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>27309</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>-3348423853.0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
+          <t>-1196038154.0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>29.08</t>
-        </is>
-      </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>22.55</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>261271</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
+          <t>265424</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -638,7 +638,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1329.887</t>
+          <t>1163.746</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -663,22 +663,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>279.5</t>
+          <t>274.5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -718,22 +718,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-7.41</t>
+          <t>-8.51</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-3.71</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-969589286.0</t>
+          <t>-642693266.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>50.09</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>62.63</t>
+          <t>61.53</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>88632</t>
+          <t>87046</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2211.843</t>
+          <t>10673.265</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,22 +865,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>107.5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -890,67 +890,67 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>73</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>10673</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>207.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>207487434.0</t>
+          <t>1374772843.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>25.56</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>8868</t>
+          <t>9738</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>728.0</t>
+          <t>901.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,22 +1067,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>661.0</t>
+          <t>673.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1092,52 +1092,52 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>901</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-14.15</t>
+          <t>-13.97</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-9.01</t>
+          <t>-10.01</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-819383.0</t>
+          <t>506112.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1202,27 +1202,27 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>55.49</t>
+          <t>51.96</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>53647</t>
+          <t>54621</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1244,7 +1244,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1254,12 +1254,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,22 +1269,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>151</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1349,12 +1349,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-10418.0</t>
+          <t>-11259.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>19.66</t>
+          <t>19.5</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>101.62</t>
+          <t>100.54</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-2.76</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5505.696</t>
+          <t>2763.911</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1496,77 +1496,77 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>-195266327.0</t>
+          <t>-199667813.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>12763</t>
+          <t>12409</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3369.097</t>
+          <t>5407.916</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,22 +1673,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>268.0</t>
+          <t>272.5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1698,17 +1698,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>144</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3369</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1733,84 +1733,84 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>3338699437.0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>技嘉</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1148044901.0</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>技嘉</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>105.16</t>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>21.74</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>179530</t>
+          <t>182544</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1850,7 +1850,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2203.091</t>
+          <t>1603.256</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1875,22 +1875,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1900,17 +1900,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-51158389.0</t>
+          <t>-38190200.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>62.41</t>
+          <t>62.59</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>8983</t>
+          <t>8948</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2062,119 +2062,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6433.039</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>107.5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.86</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-21.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7571.795</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>7572</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>-894175728.0</t>
+          <t>-2856015460.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>255850</t>
+          <t>252329</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2254,7 +2254,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2279,22 +2279,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2324,27 +2324,27 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-39.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-1052.0</t>
+          <t>-1406.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2424,17 +2424,17 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>145.48</t>
+          <t>143.81</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>46.15</t>
+          <t>45.72</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2251</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7666.289</t>
+          <t>6396.601</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>-3.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27.34</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>638.0</t>
+          <t>623.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2506,17 +2506,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>101</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7666</t>
+          <t>6397</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2526,32 +2526,32 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>-3.85</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>21.59</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2586,17 +2586,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-3190050960.0</t>
+          <t>-2173808548.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>47.75</t>
+          <t>46.63</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>46.86</t>
+          <t>46.31</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>183211</t>
+          <t>178903</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>512.494</t>
+          <t>218.396</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2683,17 +2683,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>218</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2763,42 +2763,42 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>-22181871.0</t>
+          <t>-131036263.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27308.657</t>
+          <t>17175.959</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2885,22 +2885,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>47.64</t>
+          <t>29.96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>35.15</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2910,17 +2910,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>27309</t>
+          <t>17176</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2930,32 +2930,32 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2965,24 +2965,24 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>-2.0</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Z13" t="inlineStr">
         <is>
           <t>2025-01-17</t>
@@ -2990,17 +2990,17 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>-1196038154.0</t>
+          <t>-772223189.0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>29.24</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>265424</t>
+          <t>262781</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,184 +476,199 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>6789</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48724.0</t>
+          <t>1166.891</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -663,199 +678,214 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>40.86</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>48724</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-9.64</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-4.89</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>5161920.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>-266371011.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>采鈺</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>49.27</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>4891</t>
+          <t>62.72</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>85619</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>采鈺-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>半導體業平</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>56.93</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-4.55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44169.655</t>
+          <t>15022.065</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,199 +895,214 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-8.14</t>
+          <t>-7.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>34.76</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>73.7</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>44170</t>
+          <t>53</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>15022</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-8.14</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-7.80</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-67.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-2060191493.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>展達</t>
+          <t>-265928131.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>迎廣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>61.42</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>49.37</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>5698</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>寬頻通訊產品37.06%、人工智慧物聯網(AIOT)32.77%、無線產品20.11%、數位影音產品5.16%、其他4.91% (2023年)</t>
+          <t>9285</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>展達-通信網路業-上市</t>
+          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>迎廣-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>短增平</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29036.0</t>
+          <t>702.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,107 +1112,107 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>38.73</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>188.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>671.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29036</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>702</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-13.83</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-10.77</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1177,89 +1222,104 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>6415844.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>609845.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>譜瑞-KY</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>51.96</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28681</t>
+          <t>88.24</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>54458</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>譜瑞-KY-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>半導體業右下</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>281.97</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14426.651</t>
+          <t>391.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,107 +1329,107 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>-7.2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.25</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>14427</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>391</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>-56.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1379,89 +1439,104 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1996215024.0</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>一詮</t>
+          <t>-15522.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>李洲</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>389.29</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>62.59</t>
+          <t>18.7</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>25501</t>
+          <t>98.95</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>導線架35.82%、均熱片(半導體)21.19%、直下式電視背光模組12.22%、陶瓷基板11.91%、其他10.80%、IC導線架8.06% (2023年)</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>一詮-光電業-上市</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>李洲-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>光電業平</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>短增平</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15724.359</t>
+          <t>1916.498</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,199 +1546,214 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>-11.8</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15724</t>
+          <t>27</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1151749593.0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>-418979700.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>62.59</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>12271</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>毅嘉-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>短增平</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12872.861</t>
+          <t>2885.822</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,177 +1763,1494 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>59.40</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>265.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12873</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>-2.64</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>1589809950.0</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>技嘉</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>105.16</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>177520</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>技嘉-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1695.763</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.56</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-13969449.0</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>錸德</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>8844</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>錸德-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>短增平</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6559.735</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>106.5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6560</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-1.88</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-2230624655.0</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>光寶科</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>249982</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>光寶科-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-1.4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.3</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-44.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>-570.0</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>宏佳騰</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>144.29</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>45.28</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>宏佳騰-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>電機機械右下</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>短增平</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-2.58</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5329.115</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-20.6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>607.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>5329</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-4.61</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-2542985656.0</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>華城</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>174309</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>華城-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>電機機械右上</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>短增平</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>482.249</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-15.6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-124635928.0</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>卜蜂</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>30363</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>卜蜂-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>短增平</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2918105916.0</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>群光</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14426.734</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>34.5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>14427</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-138926382.0</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>36.06</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>13.84</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>130729</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>電子零組件55.88%、消費性電子產品42.12%、其他2.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>群光-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>260516</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>水泥工業平</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>31.94</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>短增平</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,95 +556,100 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>MA_break</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -653,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -663,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1166.891</t>
+          <t>1054.874</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -678,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>270.0</t>
+          <t>267.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -708,27 +713,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -743,17 +748,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-9.64</t>
+          <t>-10.61</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.89</t>
+          <t>-6.04</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -763,29 +768,29 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -793,75 +798,80 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-266371011.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>-923127581.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>49.27</t>
-        </is>
-      </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>48.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>85619</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
+          <t>84827</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>56.93</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -870,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -880,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-4.55</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15022.065</t>
+          <t>6392.621</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -895,27 +905,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-7.80</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>34.76</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -925,160 +935,165 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15022</t>
+          <t>6393</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-7.80</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>82</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-265928131.0</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>-1136549837.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>9285</t>
+          <t>70.25</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
+          <t>9149</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>19.2</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -1087,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,12 +1112,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>702.0</t>
+          <t>957.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1112,27 +1127,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>671.0</t>
+          <t>693.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1142,52 +1157,52 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>957</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-13.83</t>
+          <t>-11.80</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-10.77</t>
+          <t>-10.98</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1197,27 +1212,27 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1227,75 +1242,80 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
           <t>-3</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>609845.0</t>
-        </is>
-      </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>791567.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>51.96</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>20.61</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>21.29</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>54458</t>
+          <t>88.73</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
+          <t>56244</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>281.97</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1304,7 +1324,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1314,12 +1334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>391.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1329,27 +1349,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.49</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-12.6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>22.25</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1359,17 +1379,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>125</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1379,32 +1399,32 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-4.49</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-5.74</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1414,29 +1434,29 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1444,75 +1464,80 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-15522.0</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>-9578.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>李洲</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>18.7</t>
-        </is>
-      </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>98.95</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>97.87</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>14.61</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -1521,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1531,12 +1556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1916.498</t>
+          <t>1408.986</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1546,27 +1571,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-11.8</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1576,17 +1601,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1596,32 +1621,32 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1631,105 +1656,110 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-418979700.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>-133158989.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>12271</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
+          <t>12409</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -1738,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1748,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2885.822</t>
+          <t>2093.492</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1763,27 +1793,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.64</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>265.0</t>
+          <t>267.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1793,17 +1823,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1813,7 +1843,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-2.64</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1828,17 +1858,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1848,105 +1878,110 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1589809950.0</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>1256633479.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>177520</t>
+          <t>70.25</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
+          <t>178860</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1955,7 +1990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1965,12 +2000,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1695.763</t>
+          <t>2466.466</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1980,27 +2015,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-1.8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2010,17 +2045,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2030,12 +2065,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2045,17 +2080,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -2065,27 +2100,27 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2095,75 +2130,80 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-13969449.0</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>-10532823.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>8844</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
+          <t>8914</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -2172,7 +2212,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2182,12 +2222,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6559.735</t>
+          <t>7010.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2197,22 +2237,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2227,12 +2267,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>59</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6560</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2247,32 +2287,32 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2282,29 +2322,29 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2312,75 +2352,80 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-2230624655.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
+          <t>-2151445162.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>16.65</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>20.52</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>70.87</t>
-        </is>
-      </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
           <t>249982</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>39.46</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2389,7 +2434,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2399,12 +2444,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2414,27 +2459,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2444,12 +2489,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2464,12 +2509,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2479,17 +2524,17 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2499,27 +2544,27 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2529,84 +2574,89 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-570.0</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>-1270.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>144.29</t>
-        </is>
-      </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>45.28</t>
+          <t>144.05</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>45.01</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
+          <t>2255</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2616,12 +2666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5329.115</t>
+          <t>3645.398</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2631,27 +2681,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-20.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>607.0</t>
+          <t>606.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2661,27 +2711,27 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>59</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5329</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>24.19</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2691,22 +2741,22 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>22.70</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2716,114 +2766,119 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-2542985656.0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
+          <t>-9584465165.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
           <t>華城</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
           <t>18.65</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>45.43</t>
-        </is>
-      </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>174309</t>
+          <t>45.39</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
+          <t>174021</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>華城-電機機械-上市</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>25.09</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2833,205 +2888,210 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>817.988</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>104.5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>482.249</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-15.6</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>482</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-124635928.0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
+          <t>12854520.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
       <c r="AI12" t="inlineStr">
         <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
           <t>24.85</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>15.73</t>
-        </is>
-      </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>30363</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
+          <t>30806</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>36.24</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -3040,7 +3100,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3050,12 +3110,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14426.734</t>
+          <t>13725.006</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3065,27 +3125,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25.17</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3095,17 +3155,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>145</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14427</t>
+          <t>13725</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3115,12 +3175,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3130,12 +3190,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3150,105 +3210,110 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-138926382.0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
+          <t>-617982096.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>28.99</t>
-        </is>
-      </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>22.59</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>260516</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
+          <t>262404</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,175 +481,180 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>短增量_</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -658,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1054.874</t>
+          <t>2757.618</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,119 +688,119 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>18.35</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>256.5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2758</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>267.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1055</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-2.06</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>-0.09</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.76</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-10.61</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-6.04</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-12.13</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>-7.25</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>0</t>
@@ -803,75 +808,80 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-923127581.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>-1302299630.0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>采鈺</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>48.81</t>
-        </is>
-      </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>84827</t>
+          <t>189.35</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>81338</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>56.93</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -880,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-9.38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6392.621</t>
+          <t>4361.084</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,204 +915,209 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91.9</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6393</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4361</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-4.89</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>2025-02-19</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-1136549837.0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>-2662190907.0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>26.37</t>
-        </is>
-      </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>70.25</t>
+          <t>23.99</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9149</t>
+          <t>112.91</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
+          <t>8325</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>19.2</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>957.0</t>
+          <t>964.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,119 +1142,119 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>693.0</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>683.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-11.80</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-10.98</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>-10.88</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-10.96</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1247,75 +1262,80 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>791567.0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>-462857.0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
       <c r="AJ4" t="inlineStr">
         <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
           <t>51.96</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>21.29</t>
-        </is>
-      </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>56244</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
+          <t>55432</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>281.97</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1324,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,32 +1369,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1384,84 +1404,84 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-13.49</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-5.74</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>-40.0</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-61</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-63</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1469,84 +1489,89 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-9578.0</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>-9418.0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>李洲</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AJ5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>18.78</t>
-        </is>
-      </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>97.87</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>97.14</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
+          <t>1844</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>14.61</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1408.986</t>
+          <t>3189.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,117 +1596,117 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1691,84 +1716,89 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-133158989.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>107210158.0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
       <c r="AJ6" t="inlineStr">
         <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>19.21</t>
-        </is>
-      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>12409</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
+          <t>12455</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2093.492</t>
+          <t>4912.522</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,195 +1823,200 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>267.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>69</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>1.08</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-0.37</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1256633479.0</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>-1499448702.0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>70.25</t>
+          <t>21.41</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>178860</t>
+          <t>112.91</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>176850</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1990,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2466.466</t>
+          <t>4044.285</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,119 +2050,119 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>4044</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-1.94</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.22</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2135,84 +2170,89 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-10532823.0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>-40366969.0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AJ8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>8914</t>
+          <t>61.38</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
+          <t>8844</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2222,134 +2262,134 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11590.151</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7010.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-0.84</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>106.5</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7010</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>46</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>11590</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.76</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2357,75 +2397,80 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-2151445162.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
+          <t>-2673994098.0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
           <t>16.65</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>20.52</t>
-        </is>
-      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>70.25</t>
+          <t>20.23</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>249982</t>
+          <t>112.91</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
+          <t>246461</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>39.46</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2434,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2449,7 +2494,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2459,119 +2504,119 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>-1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>-0.50</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>0.18</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-1.99</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-32.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>-31.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2579,75 +2624,80 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-1270.0</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
+          <t>-748.0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>144.05</t>
-        </is>
-      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>143.81</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>44.72</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2656,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2666,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-7.52</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3645.398</t>
+          <t>6187.568</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,195 +2731,200 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-5.69</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>606.0</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>562.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>24.15</t>
+          <t>246</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>6188</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>22.40</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-5.69</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>22.70</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>29.0</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-9584465165.0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
+          <t>-9081390345.0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
           <t>華城</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
       <c r="AJ11" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
           <t>18.65</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>45.36</t>
-        </is>
-      </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>45.39</t>
+          <t>42.07</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>174021</t>
+          <t>43.44</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
+          <t>161386</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
           <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>華城-電機機械-上市</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>電機機械右上</t>
-        </is>
-      </c>
       <c r="AQ11" t="inlineStr">
         <is>
+          <t>電機機械平</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
           <t>25.09</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2878,7 +2933,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2888,219 +2943,224 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>704.206</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>817.988</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14.86</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>104.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>0.21</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>12854520.0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
+          <t>-37608145.0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
           <t>24.85</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>15.88</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>30806</t>
+          <t>19.85</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
+          <t>30658</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>36.24</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3110,12 +3170,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13725.006</t>
+          <t>26911.459</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3125,197 +3185,202 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>46.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13725</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>26911</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>0.26</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-617982096.0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
+          <t>914501209.0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
       <c r="AJ13" t="inlineStr">
         <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>29.2</t>
-        </is>
-      </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>29.24</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>262404</t>
+          <t>22.61</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
+          <t>262781</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,180 +481,175 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>短增量_</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>短交易量o</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量o</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>Trend_change</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -663,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2757.618</t>
+          <t>1138.062</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,117 +683,117 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>257.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>256.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-0.56</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-13.14</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-8.43</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2758</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-12.13</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-7.25</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -808,80 +803,75 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-690472083.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-1302299630.0</t>
+          <t>采鈺</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>采鈺</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>46.81</t>
+          <t>189.55</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>189.35</t>
+          <t>81497</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>81338</t>
+          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
+          <t>采鈺-半導體業-上市</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>采鈺-半導體業-上市</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>56.93</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
-        <is>
-          <t>56.93</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -890,22 +880,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-9.38</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4361.084</t>
+          <t>769.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,200 +905,195 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.89</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>669.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>91.9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.84</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-11.15</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-11.00</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>4361</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-4.89</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>-515969.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>-2662190907.0</t>
+          <t>譜瑞-KY</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>迎廣</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51.96</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>23.99</t>
+          <t>50.12</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>112.91</t>
+          <t>54296</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
+          <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>迎廣-電腦及週邊設備業-上市</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>281.97</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
-        <is>
-          <t>19.2</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1117,22 +1102,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>964.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,117 +1127,117 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>683.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-64.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>964</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-10.88</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-10.96</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1262,80 +1247,75 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-64</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2218.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>-462857.0</t>
+          <t>李洲</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>譜瑞-KY</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>51.96</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>95.74</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>86.62</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>55432</t>
+          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
+          <t>李洲-光電業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>譜瑞-KY-半導體業-上櫃</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
-        <is>
-          <t>281.97</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1344,22 +1324,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>3669.026</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,117 +1349,117 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-13.49</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-0.42</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-63</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1489,80 +1469,75 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-239150888.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-9418.0</t>
+          <t>興富發</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>李洲</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>13.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>27.96</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>97.14</t>
+          <t>88309</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>房屋99.11%、其他0.69%、建築工程0.21% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+          <t>興富發-建材營造-上市</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>李洲-光電業-上櫃</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
-        <is>
-          <t>14.61</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1571,22 +1546,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3189.28</t>
+          <t>4075.934</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,7 +1571,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1606,190 +1581,185 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>262.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>-1806833103.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>107210158.0</t>
+          <t>技嘉</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>105.16</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>115.65</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>175511</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12455</t>
+          <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>75.85</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
-        <is>
-          <t>22.18</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1798,22 +1768,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4912.522</t>
+          <t>1902.717</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,200 +1793,195 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>264.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4913</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>-17.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>-1.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-42746706.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-1499448702.0</t>
+          <t>錸德</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>61.22</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>112.91</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>176850</t>
+          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>錸德-光電業-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>技嘉-電腦及週邊設備業-上市</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
-        <is>
-          <t>75.85</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2025,22 +1990,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4044.285</t>
+          <t>6312.948</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,117 +2015,117 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>6313</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>12.75</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>4044</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2170,80 +2135,75 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-1291678463.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-40366969.0</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>錸德</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115.65</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>61.38</t>
+          <t>251156</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>8844</t>
+          <t>商品銷售99.93%、房地產租賃0.07% (2024年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>錸德-光電業-上市</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>39.46</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2252,22 +2212,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11590.151</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2237,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,97 +2257,97 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-25.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>11590</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-1.08</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2397,80 +2357,75 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>-1497.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>-2673994098.0</t>
+          <t>宏佳騰</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>143.57</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>45.05</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>112.91</t>
+          <t>2247</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>246461</t>
+          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
-        <is>
-          <t>39.46</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2479,22 +2434,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>22178.529</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,117 +2459,117 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-2.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>34.5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>30.2</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>242</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22179</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-2.75</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-31.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2624,761 +2579,75 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>640209443.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>-748.0</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>28.99</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>143.81</t>
+          <t>22.58</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>44.72</t>
+          <t>260516</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2251</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>台泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
-        <is>
-          <t>26.98</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1519</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-7.52</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6187.568</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-5.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-2.29</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>22.06</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>562.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>6188</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>22.40</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-5.69</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-0.22</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>16.76</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>-9081390345.0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>華城</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>18.65</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>42.07</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>43.44</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>161386</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>變壓器68.80%、配電盤11.42%、工程承包8.43%、其他8.34%、配電器材2.84%、電力0.16% (2023年)</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>華城-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1215</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>704.206</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>704</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>-37608145.0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>卜蜂</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>24.85</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>15.88</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>19.85</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>30658</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>卜蜂-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>食品工業右上</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>36.24</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>26911.459</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>46.95</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>34.8</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>26911</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>914501209.0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>29.24</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>262781</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>水泥工業平</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1138.062</t>
+          <t>1418.499</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>257.0</t>
+          <t>255.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,32 +718,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,17 +753,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-13.14</t>
+          <t>-13.94</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-8.43</t>
+          <t>-9.53</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-690472083.0</t>
+          <t>-774119323.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.53</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>189.55</t>
+          <t>184.72</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>81497</t>
+          <t>80863</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>769.0</t>
+          <t>509.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,67 +905,67 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>-3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>669.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>509</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>-3.66</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-11.15</t>
+          <t>-12.35</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-11.00</t>
+          <t>-11.27</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1000,19 +1000,19 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>-1.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1025,12 +1025,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-515969.0</t>
+          <t>-1509769.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>50.12</t>
+          <t>49.14</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>54296</t>
+          <t>53160</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,172 +1127,172 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-3.15</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-68.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-68</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-3331.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>李洲</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-3.00</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-64.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-64</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2218.0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>李洲</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>18.7</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>95.74</t>
+          <t>66.51</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3669.026</t>
+          <t>4700.575</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1384,17 +1384,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3669</t>
+          <t>4701</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1419,17 +1419,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-239150888.0</t>
+          <t>-142446611.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,27 +1494,27 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.63</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>27.96</t>
+          <t>26.27</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>88309</t>
+          <t>89034</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4075.934</t>
+          <t>4410.071</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>262.0</t>
+          <t>256.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1626,32 +1626,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1806833103.0</t>
+          <t>-3509307444.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>115.65</t>
+          <t>115.47</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>175511</t>
+          <t>171491</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1902.717</t>
+          <t>2737.776</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,22 +1793,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>2738</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1863,17 +1863,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-42746706.0</t>
+          <t>-109573321.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>61.22</t>
+          <t>57.06</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6312.948</t>
+          <t>7462.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>105.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>7463</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2085,17 +2085,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1291678463.0</t>
+          <t>-1337237358.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>115.65</t>
+          <t>115.47</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>251156</t>
+          <t>247635</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2212,22 +2212,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-1.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>1210.998</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,17 +2237,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>32.55</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2272,67 +2272,67 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-25.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2342,87 +2342,87 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-1497.0</t>
+          <t>-43851191.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>橋椿</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>143.57</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>45.05</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>水龍頭零配件53.31%、水龍頭組裝件37.87%、其他8.83% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>橋椿-居家生活-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2434,220 +2434,442 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>-1690.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>宏佳騰</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>2240</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>宏佳騰-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>電機機械右下</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-0.86</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22178.529</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-2.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.63</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>38.69</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41559.442</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>72.50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>22179</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-2.75</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>41559</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>640209443.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-1236529791.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>28.99</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>22.58</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>260516</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>252209</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1418.499</t>
+          <t>541.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>255.0</t>
+          <t>256.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,17 +718,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>541</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,17 +753,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-13.94</t>
+          <t>-14.34</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-9.53</t>
+          <t>-11.24</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-774119323.0</t>
+          <t>-318497983.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.53</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>184.72</t>
+          <t>184.7</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>80863</t>
+          <t>81338</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>509.0</t>
+          <t>380.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>655.0</t>
+          <t>660.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -935,72 +935,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>-1.69</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.16</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-13.60</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-12.11</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-3.66</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-12.35</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-11.27</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-1509769.0</t>
+          <t>-313425.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,22 +1060,22 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>49.14</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>53160</t>
+          <t>52673</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
+          <t>高速訊號傳輸介面晶片44.78%、DisplayPort系列(DP)38.99%、源極驅動IC12.74%、TrueTouch系列3.49% (2024年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.25</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1157,17 +1157,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1192,22 +1192,22 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-68.0</t>
+          <t>-75.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-68</t>
+          <t>-75</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-3331.0</t>
+          <t>-3081.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>18.74</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>66.51</t>
+          <t>82.82</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4700.575</t>
+          <t>1980.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,114 +1349,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-14.66</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>-0.20</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4701</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-2.44</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-2.65</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-142446611.0</t>
+          <t>123553546.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1504,17 +1504,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>26.27</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>89034</t>
+          <t>89448</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4410.071</t>
+          <t>2340.033</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>256.0</t>
+          <t>258.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1606,52 +1606,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1676,27 +1676,27 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-3509307444.0</t>
+          <t>-807657967.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,27 +1716,27 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>115.47</t>
+          <t>127.29</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>171491</t>
+          <t>173166</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>80.14</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,42 +1778,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1812.514</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2737.776</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-2.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-0.84</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1828,27 +1828,27 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-109573321.0</t>
+          <t>-31133012.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>57.06</t>
+          <t>84.84</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>8706</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7462.95</t>
+          <t>5334.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>105.5</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2050,32 +2050,32 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7463</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2085,17 +2085,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1337237358.0</t>
+          <t>-852253903.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.33</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>115.47</t>
+          <t>127.29</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>247635</t>
+          <t>251156</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1210.998</t>
+          <t>652.707</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,17 +2237,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.55</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2272,17 +2272,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>653</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2292,32 +2292,32 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2327,12 +2327,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2352,17 +2352,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-43851191.0</t>
+          <t>-3144850.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2444,129 +2444,129 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>-0.33</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.77</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-5.49</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-1.30</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-1690.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2604,27 +2604,27 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>24.75</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>41.01</t>
+          <t>88.6</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>41559.442</t>
+          <t>11825.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,27 +2681,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>72.50</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.4</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>156</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>41559</t>
+          <t>11825</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2736,32 +2736,32 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2771,12 +2771,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1236529791.0</t>
+          <t>-1168094677.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2836,17 +2836,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>23.08</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>252209</t>
+          <t>254475</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,11 +654,16 @@
           <t>短增level</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>541.4</t>
+          <t>578.164</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>256.5</t>
+          <t>259.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>578</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -738,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-14.34</t>
+          <t>-14.04</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-11.24</t>
+          <t>-11.80</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -773,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -788,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -803,12 +808,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-318497983.0</t>
+          <t>199076116.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.81</t>
+          <t>47.35</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>184.7</t>
+          <t>185.65</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>81338</t>
+          <t>82290</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -874,13 +879,18 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>380.0</t>
+          <t>307.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>660.0</t>
+          <t>665.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -935,22 +945,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>307</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -960,12 +970,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -975,17 +985,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-13.60</t>
+          <t>-13.02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-12.11</t>
+          <t>-12.30</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -995,24 +1005,24 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1025,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-313425.0</t>
+          <t>228545.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>52673</t>
+          <t>53971</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1096,13 +1106,18 @@
       <c r="AR3" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>418.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1147,7 +1162,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1157,22 +1172,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>418</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1182,7 +1197,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1192,22 +1207,22 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1217,12 +1232,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-75.0</t>
+          <t>-72.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1232,7 +1247,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1247,12 +1262,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-75</t>
+          <t>-72</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-3081.0</t>
+          <t>9013.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1277,17 +1292,17 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.74</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>82.82</t>
+          <t>82.88</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1312,19 +1327,24 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1980.81</t>
+          <t>2290.724</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1369,7 +1389,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1384,17 +1404,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1404,7 +1424,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1419,17 +1439,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-14.66</t>
+          <t>-2.93</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1439,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1454,7 +1474,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1469,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>123553546.0</t>
+          <t>18449163.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1504,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>48.66</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>89448</t>
+          <t>89862</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1540,13 +1560,18 @@
       <c r="AR5" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2340.033</t>
+          <t>2409.361</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1591,7 +1616,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>258.5</t>
+          <t>265.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1606,17 +1631,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1626,32 +1651,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1661,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1676,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1691,12 +1716,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-807657967.0</t>
+          <t>969215824.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>127.29</t>
+          <t>129.08</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>173166</t>
+          <t>177520</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1762,13 +1787,18 @@
       <c r="AR6" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1812.514</t>
+          <t>2127.047</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1813,7 +1843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1828,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1848,22 +1878,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1873,7 +1903,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1883,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1913,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-31133012.0</t>
+          <t>30642461.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1948,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8706</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1984,13 +2014,18 @@
       <c r="AR7" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5334.58</t>
+          <t>7521.922</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,22 +2050,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2050,12 +2085,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>7522</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2065,12 +2100,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2080,22 +2115,22 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-154.27</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2105,12 +2140,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2120,7 +2155,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2135,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-852253903.0</t>
+          <t>-860999277.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2175,7 +2210,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>127.29</t>
+          <t>129.08</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2206,13 +2241,18 @@
       <c r="AR8" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2222,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>652.707</t>
+          <t>1027.124</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2257,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>33.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2272,17 +2312,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2292,12 +2332,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2312,12 +2352,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2327,12 +2367,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2342,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2352,17 +2392,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-3144850.0</t>
+          <t>71215764.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2382,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2392,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>6690</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2428,13 +2468,18 @@
       <c r="AR9" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2444,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2459,17 +2504,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2479,7 +2524,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2489,7 +2534,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2499,12 +2544,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2514,34 +2559,34 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-27.76</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-5.49</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>-90.0</t>
@@ -2549,7 +2594,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2584,7 +2629,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>921.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2604,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2614,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.75</t>
+          <t>24.88</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>88.6</t>
+          <t>87.65</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2232</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2650,13 +2695,18 @@
       <c r="AR10" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2666,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11825.27</t>
+          <t>11735.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,17 +2731,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>20.47</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2701,7 +2751,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2716,12 +2766,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>81</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11825</t>
+          <t>11735</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2736,7 +2786,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2746,22 +2796,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2771,12 +2821,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2801,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1168094677.0</t>
+          <t>-164681279.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2826,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2836,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>23.08</t>
+          <t>23.01</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>254475</t>
+          <t>253720</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2872,6 +2922,11 @@
       <c r="AR11" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>578.164</t>
+          <t>1067.988</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>259.5</t>
+          <t>252.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>49</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-14.04</t>
+          <t>-14.20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-11.80</t>
+          <t>-12.28</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>199076116.0</t>
+          <t>-262320624.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>47.35</t>
+          <t>46.08</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>185.65</t>
+          <t>183.86</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>82290</t>
+          <t>80070</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>419.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>665.0</t>
+          <t>675.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,17 +950,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>419</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -985,17 +985,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-13.02</t>
+          <t>-11.62</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-12.30</t>
+          <t>-12.16</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>228545.0</t>
+          <t>735578.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.43</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>53971</t>
+          <t>54783</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>418.0</t>
+          <t>337.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>22.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,62 +1177,62 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>337</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>-0.53</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.58</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>9013.0</t>
+          <t>15002.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>82.88</t>
+          <t>82.56</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2290.724</t>
+          <t>2769.212</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>42.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>79</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-2.93</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>18449163.0</t>
+          <t>65930849.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>49.31</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>89862</t>
+          <t>88930</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2409.361</t>
+          <t>2804.921</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>265.0</t>
+          <t>264.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1631,52 +1631,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-1.76</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>969215824.0</t>
+          <t>-713887156.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>18.07</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>129.08</t>
+          <t>122.89</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>177520</t>
+          <t>176850</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1791,14 +1791,14 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2127.047</t>
+          <t>2700.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>30642461.0</t>
+          <t>38292932.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1973,22 +1973,22 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>180.71</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>85.5</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>8775</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,82 +2035,82 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-1.4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7431.145</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7521.922</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>105.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7522</t>
+          <t>7431</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-154.27</t>
+          <t>-3.90</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,24 +2140,24 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>-1.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-860999277.0</t>
+          <t>-1018625580.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>129.08</t>
+          <t>122.89</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>251156</t>
+          <t>247635</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1027.124</t>
+          <t>929.439</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>33.45</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>929</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>71215764.0</t>
+          <t>25089998.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6690</t>
+          <t>6600</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2539,17 +2539,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2574,17 +2574,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-27.76</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2594,24 +2594,24 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>921.0</t>
+          <t>1014.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.88</t>
+          <t>24.75</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>87.18</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11735.07</t>
+          <t>14631.293</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,17 +2731,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.47</t>
+          <t>25.52</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.6</t>
+          <t>33.65</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11735</t>
+          <t>14631</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2801,17 +2801,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-164681279.0</t>
+          <t>-298064134.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>23.05</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>253720</t>
+          <t>254097</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1067.988</t>
+          <t>742.679</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>252.5</t>
+          <t>258.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>743</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-14.20</t>
+          <t>-13.69</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.28</t>
+          <t>-12.57</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-41.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-262320624.0</t>
+          <t>69159456.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.08</t>
+          <t>47.17</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>183.86</t>
+          <t>187.65</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>80070</t>
+          <t>81973</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>419.0</t>
+          <t>456.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>675.0</t>
+          <t>676.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,27 +950,27 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>456</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -980,22 +980,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-11.62</t>
+          <t>-10.32</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-12.16</t>
+          <t>-11.79</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>735578.0</t>
+          <t>793517.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>75.07</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>54783</t>
+          <t>54864</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>337.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,114 +1142,114 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.8</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22.9</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-72.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-0.62</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-72.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>15002.0</t>
+          <t>14570.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>17.54</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>82.56</t>
+          <t>83.13</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2769.212</t>
+          <t>1731.428</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.95</t>
+          <t>43.15</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>65930849.0</t>
+          <t>54828976.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>48.72</t>
+          <t>48.97</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>88930</t>
+          <t>89344</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2804.921</t>
+          <t>3096.145</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,132 +1596,132 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>264.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2805</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-713887156.0</t>
+          <t>721341094.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.07</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>122.89</t>
+          <t>125.17</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>176850</t>
+          <t>179530</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2700.13</t>
+          <t>2154.844</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2155</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1888,22 +1888,22 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,24 +1913,24 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-20.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>38292932.0</t>
+          <t>88639733.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>180.71</t>
+          <t>181.43</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8775</t>
+          <t>8810</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7431.145</t>
+          <t>9356.286</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>105.5</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2085,32 +2085,32 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7431</t>
+          <t>9356</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2120,32 +2120,32 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-3.90</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1018625580.0</t>
+          <t>-2558038454.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.33</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>122.89</t>
+          <t>125.17</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>247635</t>
+          <t>240593</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>929.439</t>
+          <t>631.663</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>32.85</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2312,17 +2312,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>632</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>25089998.0</t>
+          <t>-17287091.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>14.14</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6600</t>
+          <t>6570</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,67 +2504,67 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1014.0</t>
+          <t>837.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.75</t>
+          <t>25.33</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>87.18</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2232</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14631.293</t>
+          <t>11270.799</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,102 +2731,102 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25.52</t>
+          <t>19.66</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>33.7</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>33.65</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>14631</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-1.93</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-298064134.0</t>
+          <t>480323901.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>23.05</t>
+          <t>23.08</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>254097</t>
+          <t>254475</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>742.679</t>
+          <t>614.338</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>258.5</t>
+          <t>259.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,27 +723,27 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>614</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -753,22 +753,22 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-13.69</t>
+          <t>-13.09</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.57</t>
+          <t>-12.67</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-41.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>69159456.0</t>
+          <t>77297704.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>47.17</t>
+          <t>47.26</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>187.65</t>
+          <t>187.04</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>81973</t>
+          <t>82131</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>456.0</t>
+          <t>378.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,114 +915,114 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-9.25</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-11.28</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-26.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>676.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-10.32</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-11.79</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>793517.0</t>
+          <t>334516.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>75.07</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>54864</t>
+          <t>54783</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,129 +1127,129 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.8</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>-0.43</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-72.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-0.88</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-0.42</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-72.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>14570.0</t>
+          <t>3471.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>82.69</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731.428</t>
+          <t>9224.782</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43.15</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,67 +1404,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>334</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>9225</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>54828976.0</t>
+          <t>366617637.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>48.97</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>89344</t>
+          <t>93175</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1564,154 +1564,154 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2376</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2870.299</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2376</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3096.145</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>268.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3096</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>721341094.0</t>
+          <t>-677207352.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.28</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>125.17</t>
+          <t>122.44</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>179530</t>
+          <t>178860</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2154.844</t>
+          <t>1667.527</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>88639733.0</t>
+          <t>40780434.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>181.43</t>
+          <t>178.57</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8810</t>
+          <t>8671</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,129 +2035,129 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16398.796</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9356.286</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-1.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>102.5</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>16399</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>9356</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-1.95</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-2.31</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-2558038454.0</t>
+          <t>-50266104.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>125.17</t>
+          <t>122.44</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>240593</t>
+          <t>244114</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>631.663</t>
+          <t>514.972</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.85</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>515</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-17287091.0</t>
+          <t>-34664478.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>14.14</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6570</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.65</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2539,12 +2539,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2559,27 +2559,27 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2609,27 +2609,27 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>837.0</t>
+          <t>702.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.33</t>
+          <t>25.37</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,102 +2716,102 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18742.058</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3,766</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>18742</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11270.799</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>19.66</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>33.7</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>11271</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2821,24 +2821,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>-1.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>480323901.0</t>
+          <t>246585990.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>23.08</t>
+          <t>22.95</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>254475</t>
+          <t>252965</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>614.338</t>
+          <t>739.349</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>259.0</t>
+          <t>254.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,52 +723,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>739</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-13.09</t>
+          <t>-12.87</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.67</t>
+          <t>-12.71</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-46.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>77297704.0</t>
+          <t>160891769.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>47.26</t>
+          <t>46.35</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>187.04</t>
+          <t>182.96</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>82131</t>
+          <t>80546</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
+          <t>影像感測器67.42%、微光學元件30.36%、其他2.22% (2024年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>378.0</t>
+          <t>384.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>675.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,17 +950,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>384</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-9.25</t>
+          <t>-8.87</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-11.28</t>
+          <t>-10.80</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>334516.0</t>
+          <t>-205316.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>73.09</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>54783</t>
+          <t>54215</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,129 +1127,129 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-2.19</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>22.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-69.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-1.75</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-72.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1262,12 +1262,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-72</t>
+          <t>-69</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3471.0</t>
+          <t>-7214.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.54</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>81.56</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9224.782</t>
+          <t>7041.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>81</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9225</t>
+          <t>7042</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1434,24 +1434,24 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>40.0</t>
@@ -1459,42 +1459,42 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>366617637.0</t>
+          <t>803334226.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>49.98</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>93175</t>
+          <t>93796</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2870.299</t>
+          <t>2269.662</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>267.0</t>
+          <t>266.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1651,32 +1651,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-677207352.0</t>
+          <t>-542983417.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.28</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>122.44</t>
+          <t>124.49</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>178860</t>
+          <t>178525</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1667.527</t>
+          <t>2408.159</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,32 +1893,32 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>-0.24</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>40780434.0</t>
+          <t>-23342952.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>178.57</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>82.93</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8671</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16398.796</t>
+          <t>8139.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,114 +2050,114 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>101.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>8139</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-1.20</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-1.22</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>16399</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-0.94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-50266104.0</t>
+          <t>-94240711.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>122.44</t>
+          <t>124.49</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>244114</t>
+          <t>238246</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>514.972</t>
+          <t>454.018</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>454</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-34664478.0</t>
+          <t>-18805988.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>13.98</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,157 +2479,157 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1599</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>702.0</t>
+          <t>553.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.37</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>85.39</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18742.058</t>
+          <t>35223.581</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,17 +2731,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32.70</t>
+          <t>61.45</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>33.15</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2766,17 +2766,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3,766</t>
+          <t>25,107</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>18742</t>
+          <t>35224</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2801,17 +2801,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>246585990.0</t>
+          <t>-1368806221.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>19.86</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>252965</t>
+          <t>250322</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>739.349</t>
+          <t>485.133</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>254.0</t>
+          <t>257.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>485</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-12.87</t>
+          <t>-12.32</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.71</t>
+          <t>-12.63</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>160891769.0</t>
+          <t>94092163.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.35</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>182.96</t>
+          <t>183.97</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>80546</t>
+          <t>81497</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>668.0</t>
+          <t>667.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -980,22 +980,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-8.87</t>
+          <t>-8.56</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-10.80</t>
+          <t>-10.35</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,22 +1005,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-205316.0</t>
+          <t>-770177.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>20.49</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.54</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>54215</t>
+          <t>54134</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1182,12 +1182,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-69.0</t>
+          <t>-61.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-7214.0</t>
+          <t>-6040.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>81.74</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,157 +1344,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4767.663</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>45.2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4768</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>2025-03-24</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2542</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7041.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>7042</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>803334226.0</t>
+          <t>514585307.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>50.28</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>93796</t>
+          <t>93589</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2269.662</t>
+          <t>3390.611</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,114 +1596,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>268.5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>266.5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2270</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-03-20</t>
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-542983417.0</t>
+          <t>-459198960.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.24</t>
+          <t>18.38</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>124.49</t>
+          <t>123.83</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>178525</t>
+          <t>179865</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2408.159</t>
+          <t>3082.226</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,32 +1878,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-23342952.0</t>
+          <t>-88262374.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>175.0</t>
+          <t>172.14</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>82.87</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>8359</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8139.48</t>
+          <t>11656.622</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>101.5</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2085,17 +2085,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>110</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8139</t>
+          <t>11657</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2105,32 +2105,32 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-94240711.0</t>
+          <t>-301709181.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>124.49</t>
+          <t>123.83</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>238246</t>
+          <t>234725</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>454.018</t>
+          <t>661.701</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.65</t>
+          <t>32.15</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2312,17 +2312,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>662</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2332,47 +2332,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-18805988.0</t>
+          <t>-19376611.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6530</t>
+          <t>6430</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2539,17 +2539,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>553.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35223.581</t>
+          <t>12203.571</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,17 +2731,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>21.29</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.15</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2766,17 +2766,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25,107</t>
+          <t>192</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>35224</t>
+          <t>12204</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2786,47 +2786,47 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1368806221.0</t>
+          <t>-2151252853.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>19.86</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>250322</t>
+          <t>247679</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
@@ -663,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>485.133</t>
+          <t>653.255</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +698,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +718,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>257.0</t>
+          <t>256.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,12 +733,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>653</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -738,37 +748,37 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-12.32</t>
+          <t>-11.78</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.63</t>
+          <t>-12.46</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -783,7 +793,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +803,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -808,12 +818,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>94092163.0</t>
+          <t>-232261675.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,45 +853,55 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>183.97</t>
+          <t>33.86%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>81497</t>
+          <t>23.44%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>184.39</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>81338</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
           <t>影像感測器67.42%、微光學元件30.36%、其他2.22% (2024年)</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>采鈺-半導體業-上市</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>56.93</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -890,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>384.0</t>
+          <t>237.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +935,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,7 +955,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>667.0</t>
+          <t>670.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,17 +970,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>237</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,12 +990,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -985,17 +1005,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-8.56</t>
+          <t>-7.97</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-10.35</t>
+          <t>-9.88</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1025,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1020,7 +1040,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1035,12 +1055,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-770177.0</t>
+          <t>-356847.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1080,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,45 +1090,55 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.49</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>72.54</t>
+          <t>42.19%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>54134</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
+          <t>72.55</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>54377</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片44.78%、DisplayPort系列(DP)38.99%、源極驅動IC12.74%、TrueTouch系列3.49% (2024年)</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>281.97</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1117,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>232.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>22.25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1182,12 +1212,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>232</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,32 +1227,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,12 +1262,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-61.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1247,7 +1277,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1262,12 +1292,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-6040.0</t>
+          <t>924.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1297,45 +1327,55 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>17.94%</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>-40.11%</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>81.74</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>1836</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>李洲-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>14.38</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1344,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4767.663</t>
+          <t>4302.265</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,114 +1409,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>45.25</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>45.2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4768</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>17.90</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-03-24</t>
@@ -1484,17 +1524,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>514585307.0</t>
+          <t>297682292.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1554,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,45 +1564,55 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>50.28</t>
+          <t>35.82%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>93589</t>
+          <t>27.62%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
+          <t>49.91</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>93693</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
           <t>房屋99.11%、其他0.69%、建築工程0.21% (2023年)</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>興富發-建材營造-上市</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>26.04</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1571,7 +1621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3390.611</t>
+          <t>2123.131</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,107 +1646,107 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>268.5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3391</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1711,17 +1761,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-459198960.0</t>
+          <t>-260049518.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1791,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,54 +1801,64 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>123.83</t>
+          <t>10.12%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>179865</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
+          <t>124.87</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>177520</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>80.14</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3082.226</t>
+          <t>1918.353</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1883,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,7 +1903,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,17 +1918,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,19 +1938,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>-0.15</t>
@@ -1898,12 +1958,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,24 +1973,24 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1943,12 +2003,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-88262374.0</t>
+          <t>-43893710.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1978,45 +2038,55 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>172.14</t>
+          <t>173.57</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>82.87</t>
+          <t>20.82%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8359</t>
+          <t>1.52%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>8428</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2025,7 +2095,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2035,12 +2105,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11656.622</t>
+          <t>7485.123</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2120,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2085,17 +2155,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11657</t>
+          <t>7485</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2105,12 +2175,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2120,17 +2190,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-1.66</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,12 +2210,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2170,12 +2240,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-301709181.0</t>
+          <t>-1248394134.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2195,7 +2265,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,45 +2275,55 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.27</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>123.83</t>
+          <t>21.26%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>234725</t>
+          <t>9.13%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
+          <t>124.87</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>238246</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
           <t>商品銷售99.93%、房地產租賃0.07% (2024年)</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>39.46</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2252,7 +2332,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2262,12 +2342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>661.701</t>
+          <t>248.659</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2357,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2377,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>32.25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2312,17 +2392,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>249</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2332,32 +2412,32 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2367,12 +2447,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,27 +2462,27 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-19376611.0</t>
+          <t>-28220644.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2422,7 +2502,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,45 +2512,55 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>6450</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
           <t>水龍頭零配件53.31%、水龍頭組裝件37.87%、其他8.83% (2023年)</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>橋椿-居家生活-上市</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>居家生活右上</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>39.98</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2479,7 +2569,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,12 +2579,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,17 +2594,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2524,7 +2614,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2544,7 +2634,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2559,7 +2649,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2569,24 +2659,24 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>-90.0</t>
@@ -2594,22 +2684,22 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2624,12 +2714,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>932.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2659,45 +2749,55 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>25.04</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>17.19%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>-16.53%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>27.43</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2706,7 +2806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2716,12 +2816,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12203.571</t>
+          <t>15013.417</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,17 +2831,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21.29</t>
+          <t>26.19</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2751,7 +2851,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2766,17 +2866,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>93</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>12204</t>
+          <t>15013</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2786,12 +2886,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2801,17 +2901,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2821,12 +2921,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2851,12 +2951,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-2151252853.0</t>
+          <t>-1023294878.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2876,7 +2976,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,45 +2986,55 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>23.29%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>247679</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
+          <t>19.87</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
+          <t>249567</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>32.09</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.97</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>653.255</t>
+          <t>623.631</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,17 +698,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>256.5</t>
+          <t>251.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,32 +733,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>624</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-11.78</t>
+          <t>-11.62</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.46</t>
+          <t>-12.29</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-57.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-232261675.0</t>
+          <t>-200636551.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>46.81</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>81338</t>
+          <t>79753</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>237.0</t>
+          <t>516.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>670.0</t>
+          <t>645.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -970,52 +970,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>516</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-7.97</t>
+          <t>-9.41</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-9.88</t>
+          <t>-9.78</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-356847.0</t>
+          <t>-433795.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>19.82</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1105,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>72.55</t>
+          <t>71.59</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>54377</t>
+          <t>52348</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>232.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.25</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>65</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1227,12 +1227,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>924.0</t>
+          <t>2435.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,129 +1394,129 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7505.031</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>45.8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7505</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4302.265</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>45.25</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-03-24</t>
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>297682292.0</t>
+          <t>321765070.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>49.91</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>93693</t>
+          <t>94831</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2123.131</t>
+          <t>3472.733</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>265.0</t>
+          <t>261.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1701,27 +1701,27 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-260049518.0</t>
+          <t>-556005603.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>17.86</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>124.87</t>
+          <t>121.73</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>177520</t>
+          <t>174841</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1918.353</t>
+          <t>1615.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1953,17 +1953,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-43893710.0</t>
+          <t>-33714789.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>173.57</t>
+          <t>172.86</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>8428</t>
+          <t>8394</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2095,7 +2095,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7485.123</t>
+          <t>6579.388</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,22 +2120,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7485</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1248394134.0</t>
+          <t>-1081476693.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>124.87</t>
+          <t>121.73</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>248.659</t>
+          <t>509.778</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,114 +2357,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>31.6</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-35.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-13.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2477,12 +2477,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-28220644.0</t>
+          <t>-29503851.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6450</t>
+          <t>6320</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2579,12 +2579,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2599,84 +2599,84 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>30.3</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-1.32</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>-90.0</t>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>932.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.04</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2806,7 +2806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15013.417</t>
+          <t>13268.952</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26.19</t>
+          <t>23.15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.05</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2866,17 +2866,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>64</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>15013</t>
+          <t>13269</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2886,12 +2886,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2901,32 +2901,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2951,12 +2951,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1023294878.0</t>
+          <t>536750483.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>19.87</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>249567</t>
+          <t>251077</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,11 +669,16 @@
           <t>flag</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>623.631</t>
+          <t>2503.484</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,114 +703,114 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-5.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>236.5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2503</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-5.07</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-12.56</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-12.35</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-54.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>251.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>624</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-0.59</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-11.62</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-12.29</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-57.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -818,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-200636551.0</t>
+          <t>-926344610.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>43.16</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>181.53</t>
+          <t>173.06</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>79753</t>
+          <t>74996</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -888,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -904,13 +909,18 @@
       <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-6.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>516.0</t>
+          <t>982.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,114 +945,114 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-5.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>12.12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>645.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-5.78</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-13.55</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-10.54</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>516</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-2.48</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-9.41</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-9.78</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-13.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1055,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-433795.0</t>
+          <t>-783991.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1080,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1090,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.82</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>71.59</t>
+          <t>69.53</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>52348</t>
+          <t>49183</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1141,13 +1151,18 @@
       <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>** 半導體 - 平面顯示器驅動IC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>343.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1207,52 +1222,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>343</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1262,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2435.0</t>
+          <t>-3389.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1327,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>70.41</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1378,13 +1393,18 @@
       <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7505.031</t>
+          <t>14127.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>24.02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1444,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>126</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7505</t>
+          <t>14127</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1464,12 +1484,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1479,17 +1499,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1499,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1514,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1524,17 +1544,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>321765070.0</t>
+          <t>-109581272.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1554,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>50.04</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>94831</t>
+          <t>93175</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1614,14 +1634,19 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3472.733</t>
+          <t>2983.857</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>261.0</t>
+          <t>257.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1681,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>2984</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1701,32 +1726,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1736,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1751,27 +1776,27 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-556005603.0</t>
+          <t>-2230228018.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1791,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1801,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>17.59</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1816,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>121.73</t>
+          <t>117.89</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>174841</t>
+          <t>172161</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1852,13 +1877,18 @@
       <c r="AU6" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 顯示器模組、主機板、機殼、電源供應器、散熱片、風扇馬達、散熱模組、顯示卡、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1868,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1615.05</t>
+          <t>3899.661</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1903,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1918,52 +1948,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1973,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2003,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-33714789.0</t>
+          <t>-42600974.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2038,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>172.86</t>
+          <t>169.29</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2053,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>8394</t>
+          <t>8220</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2089,13 +2119,18 @@
       <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 光碟片</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2105,129 +2140,129 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-3.5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14685.843</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6579.388</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>101.5</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>14686</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-2.05</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-1.28</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6579</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.59</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-1.73</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-1.09</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2240,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1081476693.0</t>
+          <t>-1354382546.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2265,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2275,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>18.88</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2290,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>121.73</t>
+          <t>117.89</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>238246</t>
+          <t>230030</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2326,13 +2361,18 @@
       <c r="AU8" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>** 汽車 - 銷售、進出口業務、車燈、其他** 電腦及週邊設備 - 機殼、電源供應器、伺服器、其他電腦及週邊設備、安全監控系統** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 其他 - 其他電子產品及電子服務產業** 雲端運算 - 電力設備、冷卻設備、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、IaaS、PaaS、SaaS** 體驗科技 - 環境感知、深度感測、視覺、手勢/動作** LED照明產業 - 封裝/模組、燈具/應用** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 智慧電網 - 配電管理設施** 醫療器材 - 醫療耗材、生物檢測</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2342,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>509.778</t>
+          <t>838.574</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2392,67 +2432,67 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>839</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-35.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2477,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-29503851.0</t>
+          <t>-34060419.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2502,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2512,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2527,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6320</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2563,13 +2603,18 @@
       <c r="AU9" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2579,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,82 +2639,82 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>-0.76</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>30.25</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-1.32</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2684,22 +2729,22 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2714,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>-755.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2739,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2749,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2764,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2800,13 +2845,18 @@
       <c r="AU10" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>** 休閒娛樂 - 休閒車業** 電動車輛產業 - 電動汽車、電動機車、電動自行車</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2816,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13268.952</t>
+          <t>14152.561</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2851,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>32.85</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2866,17 +2916,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>165</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>13269</t>
+          <t>14153</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2886,12 +2936,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2901,32 +2951,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2951,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>536750483.0</t>
+          <t>474112258.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2976,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2986,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3001,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>251077</t>
+          <t>248056</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3021,7 +3071,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -3037,6 +3087,11 @@
       <c r="AU11" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
       </c>
     </row>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2503.484</t>
+          <t>922.538</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-5.07</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>236.5</t>
+          <t>229.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>923</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.07</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-12.56</t>
+          <t>-15.18</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-12.35</t>
+          <t>-13.27</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-926344610.0</t>
+          <t>-892313825.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>43.16</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>173.06</t>
+          <t>164.67</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>74996</t>
+          <t>72618</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-6.09</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>982.0</t>
+          <t>786.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>606.0</t>
+          <t>605.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>786</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,37 +995,37 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-5.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-13.55</t>
+          <t>-21.47</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-10.54</t>
+          <t>-14.22</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-41.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-783991.0</t>
+          <t>-901258.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.59</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>69.53</t>
+          <t>66.05</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>49183</t>
+          <t>49102</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>343.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>119</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-3389.0</t>
+          <t>-13826.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>70.41</t>
+          <t>69.18</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>LED 光電產品88.84%、磊晶片11.16% (2023年)</t>
+          <t>光電93.51%、磊晶6.32%、其他0.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14127.24</t>
+          <t>7847.726</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.02</t>
+          <t>13.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>161</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14127</t>
+          <t>7848</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,27 +1484,27 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1514,17 +1514,17 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-35.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1544,17 +1544,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-109581272.0</t>
+          <t>-1314269344.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>48.75</t>
+          <t>50.02</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>93175</t>
+          <t>88620</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2983.857</t>
+          <t>3369.502</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>257.0</t>
+          <t>246.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,27 +1706,27 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2984</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1736,32 +1736,32 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-2230228018.0</t>
+          <t>-1508084010.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.59</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,17 +1841,17 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>117.89</t>
+          <t>98.5</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>172161</t>
+          <t>165127</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>網路通訊產品64.27%、電腦配件31.22%、其他4.51% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3899.661</t>
+          <t>1953.047</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,54 +1948,54 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>-0.33</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>40.0</t>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-42600974.0</t>
+          <t>-82880866.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>169.29</t>
+          <t>162.86</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>79.18</t>
+          <t>84.99</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>8220</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14685.843</t>
+          <t>8529.869</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>94.3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,62 +2190,62 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>14686</t>
+          <t>8530</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1354382546.0</t>
+          <t>-2333708798.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>117.89</t>
+          <t>98.5</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>230030</t>
+          <t>221346</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>838.574</t>
+          <t>666.191</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>30.65</t>
+          <t>29.35</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2432,27 +2432,27 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2462,37 +2462,37 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-14.78</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-34060419.0</t>
+          <t>-46268798.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>11.27</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>5870</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>居家生活平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>14.04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2674,67 +2674,67 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-755.0</t>
+          <t>-3582.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>24.05</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>80.55</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>2169</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14152.561</t>
+          <t>13189.116</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>24.69</t>
+          <t>23.01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>32.85</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2916,27 +2916,27 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>79</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>14153</t>
+          <t>13189</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2951,32 +2951,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>-7.43</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>474112258.0</t>
+          <t>-1011382666.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>248056</t>
+          <t>244658</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>-11.11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>922.538</t>
+          <t>2368.929</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>229.0</t>
+          <t>184.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>88</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-15.18</t>
+          <t>-20.48</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-13.27</t>
+          <t>-15.69</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-892313825.0</t>
+          <t>-599100425.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>33.67</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>164.67</t>
+          <t>135.24</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>72618</t>
+          <t>58549</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>-11.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>786.0</t>
+          <t>975.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>605.0</t>
+          <t>499.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,67 +980,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>49</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>983</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-21.47</t>
+          <t>-34.23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-14.22</t>
+          <t>-21.12</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-41.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-901258.0</t>
+          <t>-300765.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.59</t>
+          <t>15.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.05</t>
+          <t>54.11</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>49102</t>
+          <t>40499</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>-10.97</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>441.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>441</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>-1.48</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>-0.93</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-0.62</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-32.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-13826.0</t>
+          <t>-7003.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7847.726</t>
+          <t>14737.556</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>25.05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,67 +1464,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>306</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7848</t>
+          <t>14738</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-6.67</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-35.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,22 +1539,22 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-1314269344.0</t>
+          <t>-486413690.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>50.02</t>
+          <t>43.07</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>88620</t>
+          <t>80545</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-10.72</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3369.502</t>
+          <t>7482.685</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>246.5</t>
+          <t>201.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,79 +1706,79 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>195</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>7483</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-9.32</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-3.44</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1508084010.0</t>
+          <t>-1369755604.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>165127</t>
+          <t>134647</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>-11.11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1953.047</t>
+          <t>6648.026</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,67 +1948,67 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>6648</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-82880866.0</t>
+          <t>-39713987.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>162.86</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>84.99</t>
+          <t>69.65</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>6555</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>-10.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8529.869</t>
+          <t>17834.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>94.3</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,67 +2190,67 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8530</t>
+          <t>17835</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
+          <t>-5.47</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>-3.16</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-1.91</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-2333708798.0</t>
+          <t>-1161519081.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>221346</t>
+          <t>180503</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-10.93</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>666.191</t>
+          <t>885.846</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2432,67 +2432,67 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>886</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-14.78</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-46268798.0</t>
+          <t>-11927327.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>5870</t>
+          <t>4850</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-6.96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>35.38</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>29.1</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2674,67 +2674,67 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>121</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-79.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-3582.0</t>
+          <t>-3850.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.05</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>67.28</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>1837</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13189.116</t>
+          <t>73115.113</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>61.57</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>29.65</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2916,67 +2916,67 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>683</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>13189</t>
+          <t>73115</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-7.43</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-110.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1011382666.0</t>
+          <t>-5939947767.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>17.98</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>244658</t>
+          <t>223893</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-11.11</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2368.929</t>
+          <t>350.995</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>184.5</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2369</t>
+          <t>351</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,32 +758,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-20.48</t>
+          <t>-25.16</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-15.69</t>
+          <t>-18.91</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-35.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-599100425.0</t>
+          <t>-1011609668.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>33.67</t>
+          <t>33.39</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>135.24</t>
+          <t>134.18</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>58549</t>
+          <t>58073</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-11.01</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>975.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>499.0</t>
+          <t>494.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>801</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-34.23</t>
+          <t>-47.45</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-21.12</t>
+          <t>-30.03</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-300765.0</t>
+          <t>-525070.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>54.11</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>40499</t>
+          <t>40093</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-10.97</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>441.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.82</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,52 +1222,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>144</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.82</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-7003.0</t>
+          <t>-9597.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>60.37</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14737.556</t>
+          <t>1914.177</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25.05</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>39.75</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,67 +1464,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14738</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-6.67</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-48.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-486413690.0</t>
+          <t>-1058241007.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>80545</t>
+          <t>82305</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>房屋99.11%、其他0.69%、建築工程0.21% (2023年)</t>
+          <t>房地銷售98.58%、其他0.97%、住宿及餐飲服務0.35%、建造合同0.07%、商品銷售0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-10.72</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7482.685</t>
+          <t>1490.805</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-3.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>201.0</t>
+          <t>199.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-9.32</t>
+          <t>-15.37</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-3.44</t>
+          <t>-7.45</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1369755604.0</t>
+          <t>-2628986724.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>13.62</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>79.96</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>134647</t>
+          <t>133308</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-11.11</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6648.026</t>
+          <t>1411.744</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6648</t>
+          <t>1412</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,22 +1963,22 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1988,12 +1988,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-39713987.0</t>
+          <t>-151175548.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>134.71</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.65</t>
+          <t>69.03</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>6541</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>商品銷售93.21%、其他營業收入6.79% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17834.96</t>
+          <t>3338.764</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,52 +2190,52 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>17835</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-7.27</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-4.57</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1161519081.0</t>
+          <t>-2575321161.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.82</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>79.96</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>180503</t>
+          <t>184728</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-10.93</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>885.846</t>
+          <t>724.151</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2432,67 +2432,67 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>724</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-48.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-11927327.0</t>
+          <t>-90870798.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4850</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>水龍頭零配件53.31%、水龍頭組裝件37.87%、其他8.83% (2023年)</t>
+          <t>水龍頭零配件55.64%、水龍頭組裝件35.71%、其他8.64% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-6.96</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-3.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>35.38</t>
+          <t>49.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2674,67 +2674,67 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>168</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-3.68</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-100.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-79.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-3850.0</t>
+          <t>5078.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,17 +2809,17 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>66.25</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>全地形多功能運動車64.10%、摩托車14.76%、電動車輛13.19%、零組件及其他7.95% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>73115.113</t>
+          <t>48104.987</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>61.57</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29.65</t>
+          <t>30.75</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2916,67 +2916,67 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>405</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>73115</t>
+          <t>48105</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-110.0</t>
+          <t>-94.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-5939947767.0</t>
+          <t>-1981003883.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>17.98</t>
+          <t>18.6</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>223893</t>
+          <t>232199</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>350.995</t>
+          <t>1864.655</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-25.16</t>
+          <t>-25.30</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-18.91</t>
+          <t>-20.19</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-35.0</t>
+          <t>-38.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-1011609668.0</t>
+          <t>-232548128.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>33.39</t>
+          <t>34.49</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>134.18</t>
+          <t>135.77</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>58073</t>
+          <t>59977</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>879.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>494.0</t>
+          <t>501.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>879</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,32 +1000,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-47.45</t>
+          <t>-49.12</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-30.03</t>
+          <t>-33.85</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-525070.0</t>
+          <t>391687.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>53.51</t>
+          <t>55.28</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>40093</t>
+          <t>40661</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>15.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,52 +1222,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>117</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-9597.0</t>
+          <t>-706.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1914.177</t>
+          <t>5259.516</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>112</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,37 +1479,37 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-38.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-1058241007.0</t>
+          <t>-705439483.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1490.805</t>
+          <t>9951.231</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,114 +1671,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>27.96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>9951</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-3.03</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-16.33</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-9.23</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>199.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1491</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-15.37</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-7.45</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-2628986724.0</t>
+          <t>818946927.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>133308</t>
+          <t>135317</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1411.744</t>
+          <t>5197.884</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,97 +1948,97 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5198</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-43.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1412</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.60</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-52.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-151175548.0</t>
+          <t>-38583731.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>134.71</t>
+          <t>139.57</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.03</t>
+          <t>69.16</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6541</t>
+          <t>6777</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3338.764</t>
+          <t>20342.299</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>85.6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,52 +2190,52 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>143</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>20342</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-7.27</t>
+          <t>-6.98</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-4.57</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-2575321161.0</t>
+          <t>492150486.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.16</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>184728</t>
+          <t>200925</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>724.151</t>
+          <t>1918.411</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>24.6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2452,47 +2452,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-90870798.0</t>
+          <t>-22747606.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4800</t>
+          <t>4920</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-3.68</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>49.12</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>28.5</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2674,27 +2674,27 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-3.68</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>5078.0</t>
+          <t>7196.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>66.25</t>
+          <t>65.19</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48104.987</t>
+          <t>32259.026</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>40.51</t>
+          <t>27.17</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>30.75</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2916,67 +2916,67 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>239</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>48105</t>
+          <t>32259</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-94.0</t>
+          <t>-105.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1981003883.0</t>
+          <t>-790282134.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>18.29</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>232199</t>
+          <t>226535</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1864.655</t>
+          <t>1530.008</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>194.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-25.30</t>
+          <t>-24.73</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-20.19</t>
+          <t>-21.10</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-38.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-232548128.0</t>
+          <t>700387744.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>135.77</t>
+          <t>140.05</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>59977</t>
+          <t>61564</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>501.0</t>
+          <t>520.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>826</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1015,17 +1015,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-49.12</t>
+          <t>-48.35</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-33.85</t>
+          <t>-36.75</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>391687.0</t>
+          <t>1253938.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.39</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>55.28</t>
+          <t>57.75</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>40661</t>
+          <t>42203</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>176</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-35.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-706.0</t>
+          <t>6954.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,62 +1414,62 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4778.608</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5259.516</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>39.8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>39.75</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4779</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,17 +1479,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-38.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-705439483.0</t>
+          <t>61824120.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>82305</t>
+          <t>82408</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9951.231</t>
+          <t>9822.849</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.22</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27.96</t>
+          <t>27.60</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>202.0</t>
+          <t>212.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>117</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9951</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12.22</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1741,32 +1741,32 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-16.33</t>
+          <t>-16.07</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-9.23</t>
+          <t>-10.60</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>818946927.0</t>
+          <t>4337567226.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>13.83</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>135317</t>
+          <t>142351</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5197.884</t>
+          <t>4683.435</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,114 +1913,114 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4683</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>-0.26</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-55.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5198</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.91</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-38583731.0</t>
+          <t>110126549.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>139.57</t>
+          <t>143.57</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.16</t>
+          <t>70.96</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6777</t>
+          <t>6971</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20342.299</t>
+          <t>15722.192</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18.32</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>85.6</t>
+          <t>87.2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>139</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>20342</t>
+          <t>15722</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,47 +2210,47 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-6.98</t>
+          <t>-6.54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>-5.35</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>492150486.0</t>
+          <t>3335566005.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>16.8</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>200925</t>
+          <t>204680</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1918.411</t>
+          <t>1507.959</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>24.6</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2432,32 +2432,32 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2467,17 +2467,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-2.17</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-48.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-22747606.0</t>
+          <t>26484495.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4920</t>
+          <t>4870</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2679,12 +2679,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,32 +2694,32 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>7196.0</t>
+          <t>3290.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>32259.026</t>
+          <t>21859.144</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27.17</t>
+          <t>18.41</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>419</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>32259</t>
+          <t>21859</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,32 +2936,32 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-105.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-790282134.0</t>
+          <t>-133863812.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>20.48</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.29</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>226535</t>
+          <t>225780</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1530.008</t>
+          <t>1279.666</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-24.73</t>
+          <t>-23.36</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-21.10</t>
+          <t>-21.55</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>700387744.0</t>
+          <t>890670197.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>36.86</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>140.05</t>
+          <t>146.95</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>61564</t>
+          <t>64103</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>520.0</t>
+          <t>534.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>864</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-48.35</t>
+          <t>-46.08</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-36.75</t>
+          <t>-38.62</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1253938.0</t>
+          <t>1318796.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>57.75</t>
+          <t>59.79</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>42203</t>
+          <t>43339</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>176.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>165</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-35.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>6954.0</t>
+          <t>7441.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4778.608</t>
+          <t>3360.596</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>3361</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>61824120.0</t>
+          <t>122114038.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>45.18</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>82408</t>
+          <t>84893</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9822.849</t>
+          <t>4986.663</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27.60</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>212.5</t>
+          <t>219.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9823</t>
+          <t>4987</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,47 +1726,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-16.07</t>
+          <t>-15.12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-10.60</t>
+          <t>-11.50</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>4337567226.0</t>
+          <t>5132189082.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>142351</t>
+          <t>147040</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4683.435</t>
+          <t>2639.344</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,67 +1948,67 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>-40.0</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-55.0</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>110126549.0</t>
+          <t>124542636.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>143.57</t>
+          <t>152.86</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>70.96</t>
+          <t>75.21</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6971</t>
+          <t>7422</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15722.192</t>
+          <t>9752.512</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>87.2</t>
+          <t>89.6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>76</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>15722</t>
+          <t>9753</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2220,22 +2220,22 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-6.54</t>
+          <t>-5.93</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-5.35</t>
+          <t>-5.47</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3335566005.0</t>
+          <t>3943865221.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>204680</t>
+          <t>210314</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,22 +2372,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1507.959</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,114 +2397,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-4.31</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>24.35</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1508</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-4.31</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.54</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-2.17</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-48.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-42.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2517,82 +2517,82 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>26484495.0</t>
+          <t>-1194.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>橋椿</t>
+          <t>宏佳騰</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>17.19%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>-16.53%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>水龍頭零配件55.64%、水龍頭組裝件35.71%、其他8.64% (2024年)</t>
+          <t>全地形多功能運動車64.10%、摩托車14.76%、電動車輛13.19%、零組件及其他7.95% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>橋椿-居家生活-上市</t>
+          <t>宏佳騰-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>居家生活右下</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,29 +2607,29 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 休閒娛樂 - 休閒車業** 電動車輛產業 - 電動汽車、電動機車、電動自行車</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>15574.436</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2674,67 +2674,67 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,82 +2759,82 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>3290.0</t>
+          <t>-2086687440.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>23.14</t>
+          <t>20.48</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>17.19%</t>
+          <t>23.29%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-16.53%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>68.08</t>
+          <t>18.59</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>225780</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>全地形多功能運動車64.10%、摩托車14.76%、電動車輛13.19%、零組件及其他7.95% (2024年)</t>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>台泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>27.43</t>
+          <t>32.09</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,252 +2844,10 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
-        <is>
-          <t>** 休閒娛樂 - 休閒車業** 電動車輛產業 - 電動汽車、電動機車、電動自行車</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21859.144</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.56</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>18.41</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>29.9</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>419</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>21859</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-23.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-133863812.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>20.48</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>23.29%</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>10.88%</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>225780</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>水泥工業右下</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>32.09</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1279.666</t>
+          <t>1066.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>202.0</t>
+          <t>192.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-23.36</t>
+          <t>-22.82</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-21.55</t>
+          <t>-21.81</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>890670197.0</t>
+          <t>344214309.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>36.86</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>146.95</t>
+          <t>143.13</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>64103</t>
+          <t>60929</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>471.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>534.0</t>
+          <t>519.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>471</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,32 +1000,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-46.08</t>
+          <t>-44.98</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-38.62</t>
+          <t>-39.89</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1318796.0</t>
+          <t>643158.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>59.79</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>43339</t>
+          <t>42122</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>107</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,47 +1242,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.90</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>7441.0</t>
+          <t>3830.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3360.596</t>
+          <t>3259.676</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>122114038.0</t>
+          <t>194698634.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.94</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>45.18</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>84893</t>
+          <t>83857</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4986.663</t>
+          <t>3101.615</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-2.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>219.5</t>
+          <t>215.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,67 +1706,67 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-2.56</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-15.12</t>
+          <t>-14.56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-11.50</t>
+          <t>-12.11</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>5132189082.0</t>
+          <t>2517200212.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>147040</t>
+          <t>144026</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2639.344</t>
+          <t>2831.644</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>-4.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>-4.37</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>124542636.0</t>
+          <t>45346108.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>152.86</t>
+          <t>147.14</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>7422</t>
+          <t>7145</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9752.512</t>
+          <t>6356.047</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>89.6</t>
+          <t>88.8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,52 +2190,52 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9753</t>
+          <t>6356</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-5.93</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-5.47</t>
+          <t>-5.46</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,22 +2265,22 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3943865221.0</t>
+          <t>1691877725.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>17.11</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>210314</t>
+          <t>208436</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2372,22 +2372,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>687.386</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2432,67 +2432,67 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>687</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-2.11</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-1.66</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>-34.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2517,82 +2517,82 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-1194.0</t>
+          <t>-32941561.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>橋椿</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>17.19%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-16.53%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>4940</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>全地形多功能運動車64.10%、摩托車14.76%、電動車輛13.19%、零組件及其他7.95% (2024年)</t>
+          <t>水龍頭零配件55.64%、水龍頭組裝件35.71%、其他8.64% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>橋椿-居家生活-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>27.43</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,247 +2607,489 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 休閒車業** 電動車輛產業 - 電動汽車、電動機車、電動自行車</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-2.40</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>28.2</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>-61.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>宏佳騰</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>17.19%</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>-16.53%</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2102</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>全地形多功能運動車64.10%、摩托車14.76%、電動車輛13.19%、零組件及其他7.95% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>宏佳騰-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>電機機械右下</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>** 休閒娛樂 - 休閒車業** 電動車輛產業 - 電動汽車、電動機車、電動自行車</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19273.515</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>15574.436</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>13.12</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>29.9</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>19274</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>15574</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-1.01</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>-2086687440.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-1689382500.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>6.34</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>20.48</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>23.29%</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>10.88%</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>18.59</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>225780</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>222760</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>32.09</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>

--- a/Result/checkmy.xlsx
+++ b/Result/checkmy.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1066.03</t>
+          <t>805.447</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>192.0</t>
+          <t>194.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>805</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,32 +758,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-22.82</t>
+          <t>-21.98</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-21.81</t>
+          <t>-21.84</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>344214309.0</t>
+          <t>202048733.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>143.13</t>
+          <t>144.82</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>60929</t>
+          <t>61564</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.82</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>471.0</t>
+          <t>462.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,114 +945,114 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>526.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-43.04</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-40.52</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>519.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-2.31</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-44.98</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-39.89</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>643158.0</t>
+          <t>455460.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.94</t>
+          <t>16.16</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>59.32</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>42122</t>
+          <t>42690</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.35</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1227,47 +1227,47 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>93</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3830.0</t>
+          <t>-508.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3259.676</t>
+          <t>1749.398</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>194698634.0</t>
+          <t>-67060600.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>44.14</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>83857</t>
+          <t>83650</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3101.615</t>
+          <t>3431.684</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,114 +1671,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.56</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>219.5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>215.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-13.60</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-12.41</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3102</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-2.56</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-14.56</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-12.11</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      